--- a/data/combined data/combined data - 1 cleaning/cleaning step 2 - career/2.3 joborglink/joborglink_6_1_inorgtree_both_tocode_1_jeongsu_x.xlsx
+++ b/data/combined data/combined data - 1 cleaning/cleaning step 2 - career/2.3 joborglink/joborglink_6_1_inorgtree_both_tocode_1_jeongsu_x.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6bbfcd27a554a9ef/04_NK Elites/Data Cleaning_0309/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seoul\Dropbox\00 technical\github\nkelites\data\combined data\combined data - 1 cleaning\cleaning step 2 - career\2.3 joborglink\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F32C220-5106-5E49-B291-368C171487E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DD9E83-14FC-4E1E-847F-694A45E3B6F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28740" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6485" uniqueCount="1119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6487" uniqueCount="1119">
   <si>
     <t>OrgString</t>
   </si>
@@ -3861,28 +3861,28 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="O87" sqref="O87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.609375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="29.7265625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="4.83984375" style="4" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="8.875" style="11" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="9.14453125" style="4" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="9.55078125" style="4" hidden="1" customWidth="1"/>
-    <col min="6" max="7" width="12.375" style="14" customWidth="1"/>
-    <col min="8" max="9" width="14.52734375" style="14" customWidth="1"/>
-    <col min="10" max="13" width="14.52734375" style="6" customWidth="1"/>
-    <col min="14" max="14" width="15.6015625" style="18" customWidth="1"/>
-    <col min="15" max="16" width="15.6015625" style="20" customWidth="1"/>
-    <col min="17" max="17" width="8.33984375" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="8.609375" style="2"/>
+    <col min="2" max="2" width="4.81640625" style="4" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" style="11" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" style="4" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="9.54296875" style="4" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="12.36328125" style="14" customWidth="1"/>
+    <col min="8" max="9" width="14.54296875" style="14" customWidth="1"/>
+    <col min="10" max="13" width="14.54296875" style="6" customWidth="1"/>
+    <col min="14" max="14" width="15.6328125" style="18" customWidth="1"/>
+    <col min="15" max="16" width="15.6328125" style="20" customWidth="1"/>
+    <col min="17" max="17" width="8.36328125" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="8.6328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3935,7 +3935,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>861</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>184</v>
       </c>
@@ -3993,7 +3993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>762</v>
       </c>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>433</v>
       </c>
@@ -4054,7 +4054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>432</v>
       </c>
@@ -4083,7 +4083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>427</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>428</v>
       </c>
@@ -4141,7 +4141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>62</v>
       </c>
@@ -4167,7 +4167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>438</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>776</v>
       </c>
@@ -4234,7 +4234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>771</v>
       </c>
@@ -4278,7 +4278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>429</v>
       </c>
@@ -4307,7 +4307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>743</v>
       </c>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>841</v>
       </c>
@@ -4380,7 +4380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>827</v>
       </c>
@@ -4409,7 +4409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
@@ -4450,7 +4450,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>430</v>
       </c>
@@ -4482,7 +4482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>437</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>103</v>
       </c>
@@ -4528,7 +4528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>466</v>
       </c>
@@ -4551,7 +4551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>363</v>
       </c>
@@ -4580,7 +4580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>525</v>
       </c>
@@ -4609,7 +4609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>369</v>
       </c>
@@ -4656,7 +4656,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>351</v>
       </c>
@@ -4703,7 +4703,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>353</v>
       </c>
@@ -4753,7 +4753,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>355</v>
       </c>
@@ -4800,7 +4800,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>244</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>242</v>
       </c>
@@ -4861,7 +4861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>361</v>
       </c>
@@ -4890,7 +4890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>362</v>
       </c>
@@ -4919,7 +4919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>356</v>
       </c>
@@ -4969,7 +4969,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>508</v>
       </c>
@@ -4998,7 +4998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>501</v>
       </c>
@@ -5027,7 +5027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>501</v>
       </c>
@@ -5056,7 +5056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>509</v>
       </c>
@@ -5100,7 +5100,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>509</v>
       </c>
@@ -5147,7 +5147,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
         <v>511</v>
       </c>
@@ -5188,7 +5188,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
         <v>511</v>
       </c>
@@ -5232,7 +5232,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>500</v>
       </c>
@@ -5273,7 +5273,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>500</v>
       </c>
@@ -5317,7 +5317,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>518</v>
       </c>
@@ -5349,7 +5349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
         <v>519</v>
       </c>
@@ -5399,7 +5399,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
         <v>521</v>
       </c>
@@ -5449,7 +5449,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
         <v>523</v>
       </c>
@@ -5490,7 +5490,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
         <v>523</v>
       </c>
@@ -5534,7 +5534,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
         <v>822</v>
       </c>
@@ -5563,7 +5563,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
         <v>797</v>
       </c>
@@ -5592,7 +5592,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
         <v>506</v>
       </c>
@@ -5624,7 +5624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
         <v>506</v>
       </c>
@@ -5653,7 +5653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
         <v>17</v>
       </c>
@@ -5700,7 +5700,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
         <v>359</v>
       </c>
@@ -5747,7 +5747,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
         <v>465</v>
       </c>
@@ -5773,7 +5773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
         <v>1013</v>
       </c>
@@ -5802,7 +5802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
         <v>346</v>
       </c>
@@ -5834,7 +5834,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
         <v>449</v>
       </c>
@@ -5863,7 +5863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
         <v>439</v>
       </c>
@@ -5892,7 +5892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
         <v>434</v>
       </c>
@@ -5921,7 +5921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
         <v>434</v>
       </c>
@@ -5953,7 +5953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
         <v>321</v>
       </c>
@@ -5982,7 +5982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
         <v>446</v>
       </c>
@@ -6014,7 +6014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
         <v>323</v>
       </c>
@@ -6043,7 +6043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
         <v>299</v>
       </c>
@@ -6072,7 +6072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
         <v>299</v>
       </c>
@@ -6104,7 +6104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
         <v>304</v>
       </c>
@@ -6133,7 +6133,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
         <v>304</v>
       </c>
@@ -6165,7 +6165,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
         <v>300</v>
       </c>
@@ -6194,7 +6194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
         <v>623</v>
       </c>
@@ -6223,7 +6223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
         <v>606</v>
       </c>
@@ -6252,7 +6252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
         <v>610</v>
       </c>
@@ -6284,7 +6284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A71" s="4" t="s">
         <v>612</v>
       </c>
@@ -6313,7 +6313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A72" s="4" t="s">
         <v>613</v>
       </c>
@@ -6345,7 +6345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A73" s="4" t="s">
         <v>615</v>
       </c>
@@ -6374,7 +6374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
         <v>615</v>
       </c>
@@ -6406,7 +6406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A75" s="4" t="s">
         <v>315</v>
       </c>
@@ -6438,7 +6438,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A76" s="4" t="s">
         <v>315</v>
       </c>
@@ -6473,7 +6473,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A77" s="4" t="s">
         <v>313</v>
       </c>
@@ -6502,7 +6502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A78" s="4" t="s">
         <v>313</v>
       </c>
@@ -6534,7 +6534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A79" s="4" t="s">
         <v>314</v>
       </c>
@@ -6563,7 +6563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A80" s="4" t="s">
         <v>308</v>
       </c>
@@ -6592,7 +6592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
         <v>150</v>
       </c>
@@ -6621,7 +6621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
         <v>302</v>
       </c>
@@ -6650,7 +6650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A83" s="4" t="s">
         <v>310</v>
       </c>
@@ -6697,7 +6697,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A84" s="4" t="s">
         <v>310</v>
       </c>
@@ -6740,8 +6740,14 @@
       <c r="N84" s="18" t="s">
         <v>1098</v>
       </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O84" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="P84" s="20" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A85" s="4" t="s">
         <v>928</v>
       </c>
@@ -6770,7 +6776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A86" s="4" t="s">
         <v>928</v>
       </c>
@@ -6802,7 +6808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A87" s="4" t="s">
         <v>924</v>
       </c>
@@ -6831,7 +6837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A88" s="4" t="s">
         <v>924</v>
       </c>
@@ -6863,7 +6869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A89" s="4" t="s">
         <v>925</v>
       </c>
@@ -6892,7 +6898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A90" s="4" t="s">
         <v>926</v>
       </c>
@@ -6924,7 +6930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A91" s="4" t="s">
         <v>295</v>
       </c>
@@ -6953,7 +6959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A92" s="4" t="s">
         <v>604</v>
       </c>
@@ -6982,7 +6988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A93" s="4" t="s">
         <v>921</v>
       </c>
@@ -7014,7 +7020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A94" s="4" t="s">
         <v>923</v>
       </c>
@@ -7046,7 +7052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A95" s="4" t="s">
         <v>278</v>
       </c>
@@ -7075,7 +7081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A96" s="4" t="s">
         <v>285</v>
       </c>
@@ -7104,7 +7110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A97" s="4" t="s">
         <v>158</v>
       </c>
@@ -7133,7 +7139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A98" s="4" t="s">
         <v>158</v>
       </c>
@@ -7165,7 +7171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A99" s="4" t="s">
         <v>271</v>
       </c>
@@ -7209,7 +7215,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A100" s="4" t="s">
         <v>273</v>
       </c>
@@ -7238,7 +7244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A101" s="4" t="s">
         <v>273</v>
       </c>
@@ -7270,7 +7276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A102" s="4" t="s">
         <v>275</v>
       </c>
@@ -7302,7 +7308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A103" s="4" t="s">
         <v>159</v>
       </c>
@@ -7334,7 +7340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A104" s="4" t="s">
         <v>159</v>
       </c>
@@ -7363,7 +7369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A105" s="4" t="s">
         <v>607</v>
       </c>
@@ -7392,7 +7398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A106" s="4" t="s">
         <v>607</v>
       </c>
@@ -7424,7 +7430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A107" s="4" t="s">
         <v>617</v>
       </c>
@@ -7453,7 +7459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A108" s="4" t="s">
         <v>617</v>
       </c>
@@ -7485,7 +7491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A109" s="4" t="s">
         <v>619</v>
       </c>
@@ -7514,7 +7520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A110" s="4" t="s">
         <v>620</v>
       </c>
@@ -7546,7 +7552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A111" s="4" t="s">
         <v>608</v>
       </c>
@@ -7578,7 +7584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A112" s="4" t="s">
         <v>401</v>
       </c>
@@ -7616,7 +7622,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A113" s="4" t="s">
         <v>766</v>
       </c>
@@ -7645,7 +7651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A114" s="4" t="s">
         <v>767</v>
       </c>
@@ -7674,7 +7680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A115" s="4" t="s">
         <v>945</v>
       </c>
@@ -7706,7 +7712,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A116" s="4" t="s">
         <v>152</v>
       </c>
@@ -7738,7 +7744,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A117" s="4" t="s">
         <v>944</v>
       </c>
@@ -7770,7 +7776,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A118" s="4" t="s">
         <v>1002</v>
       </c>
@@ -7799,7 +7805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A119" s="4" t="s">
         <v>1001</v>
       </c>
@@ -7828,7 +7834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A120" s="4" t="s">
         <v>989</v>
       </c>
@@ -7857,7 +7863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A121" s="4" t="s">
         <v>471</v>
       </c>
@@ -7886,7 +7892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A122" s="4" t="s">
         <v>471</v>
       </c>
@@ -7915,7 +7921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A123" s="4" t="s">
         <v>153</v>
       </c>
@@ -7944,7 +7950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A124" s="4" t="s">
         <v>153</v>
       </c>
@@ -7973,7 +7979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A125" s="4" t="s">
         <v>154</v>
       </c>
@@ -8002,7 +8008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A126" s="4" t="s">
         <v>862</v>
       </c>
@@ -8031,7 +8037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A127" s="4" t="s">
         <v>862</v>
       </c>
@@ -8060,7 +8066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A128" s="4" t="s">
         <v>940</v>
       </c>
@@ -8089,7 +8095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A129" s="4" t="s">
         <v>863</v>
       </c>
@@ -8118,7 +8124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A130" s="4" t="s">
         <v>768</v>
       </c>
@@ -8159,7 +8165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A131" s="4" t="s">
         <v>770</v>
       </c>
@@ -8200,7 +8206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A132" s="4" t="s">
         <v>793</v>
       </c>
@@ -8241,7 +8247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A133" s="4" t="s">
         <v>426</v>
       </c>
@@ -8270,7 +8276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A134" s="4" t="s">
         <v>450</v>
       </c>
@@ -8299,7 +8305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A135" s="4" t="s">
         <v>425</v>
       </c>
@@ -8334,7 +8340,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A136" s="4" t="s">
         <v>402</v>
       </c>
@@ -8369,7 +8375,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A137" s="4" t="s">
         <v>19</v>
       </c>
@@ -8395,7 +8401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A138" s="4" t="s">
         <v>318</v>
       </c>
@@ -8427,7 +8433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A139" s="4" t="s">
         <v>791</v>
       </c>
@@ -8468,7 +8474,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A140" s="4" t="s">
         <v>370</v>
       </c>
@@ -8497,7 +8503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A141" s="4" t="s">
         <v>303</v>
       </c>
@@ -8526,7 +8532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A142" s="4" t="s">
         <v>470</v>
       </c>
@@ -8555,7 +8561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A143" s="4" t="s">
         <v>943</v>
       </c>
@@ -8584,7 +8590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A144" s="4" t="s">
         <v>935</v>
       </c>
@@ -8616,7 +8622,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A145" s="4" t="s">
         <v>420</v>
       </c>
@@ -8645,7 +8651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A146" s="4" t="s">
         <v>930</v>
       </c>
@@ -8674,7 +8680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A147" s="4" t="s">
         <v>880</v>
       </c>
@@ -8703,7 +8709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A148" s="4" t="s">
         <v>874</v>
       </c>
@@ -8732,7 +8738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A149" s="4" t="s">
         <v>904</v>
       </c>
@@ -8773,7 +8779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A150" s="4" t="s">
         <v>903</v>
       </c>
@@ -8816,7 +8822,7 @@
       <c r="O150" s="21"/>
       <c r="P150" s="21"/>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A151" s="4" t="s">
         <v>902</v>
       </c>
@@ -8857,7 +8863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A152" s="4" t="s">
         <v>899</v>
       </c>
@@ -8886,7 +8892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A153" s="4" t="s">
         <v>947</v>
       </c>
@@ -8915,7 +8921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A154" s="4" t="s">
         <v>1012</v>
       </c>
@@ -8956,7 +8962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A155" s="4" t="s">
         <v>1010</v>
       </c>
@@ -8991,7 +8997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A156" s="4" t="s">
         <v>1016</v>
       </c>
@@ -9020,7 +9026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A157" s="4" t="s">
         <v>1004</v>
       </c>
@@ -9049,7 +9055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A158" s="4" t="s">
         <v>993</v>
       </c>
@@ -9096,7 +9102,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A159" s="4" t="s">
         <v>991</v>
       </c>
@@ -9143,7 +9149,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A160" s="4" t="s">
         <v>396</v>
       </c>
@@ -9181,7 +9187,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A161" s="4" t="s">
         <v>390</v>
       </c>
@@ -9219,7 +9225,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A162" s="4" t="s">
         <v>389</v>
       </c>
@@ -9254,7 +9260,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A163" s="4" t="s">
         <v>384</v>
       </c>
@@ -9292,7 +9298,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A164" s="4" t="s">
         <v>875</v>
       </c>
@@ -9321,7 +9327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A165" s="4" t="s">
         <v>654</v>
       </c>
@@ -9353,7 +9359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A166" s="4" t="s">
         <v>654</v>
       </c>
@@ -9382,7 +9388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A167" s="4" t="s">
         <v>654</v>
       </c>
@@ -9411,7 +9417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A168" s="4" t="s">
         <v>382</v>
       </c>
@@ -9449,7 +9455,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A169" s="4" t="s">
         <v>380</v>
       </c>
@@ -9478,7 +9484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A170" s="4" t="s">
         <v>156</v>
       </c>
@@ -9507,7 +9513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A171" s="4" t="s">
         <v>156</v>
       </c>
@@ -9539,7 +9545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A172" s="4" t="s">
         <v>155</v>
       </c>
@@ -9568,7 +9574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A173" s="4" t="s">
         <v>422</v>
       </c>
@@ -9597,7 +9603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A174" s="4" t="s">
         <v>421</v>
       </c>
@@ -9626,7 +9632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A175" s="4" t="s">
         <v>421</v>
       </c>
@@ -9655,7 +9661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A176" s="4" t="s">
         <v>143</v>
       </c>
@@ -9684,7 +9690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A177" s="4" t="s">
         <v>933</v>
       </c>
@@ -9713,7 +9719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A178" s="4" t="s">
         <v>419</v>
       </c>
@@ -9742,7 +9748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A179" s="4" t="s">
         <v>910</v>
       </c>
@@ -9771,7 +9777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A180" s="4" t="s">
         <v>910</v>
       </c>
@@ -9803,7 +9809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A181" s="4" t="s">
         <v>281</v>
       </c>
@@ -9832,7 +9838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A182" s="4" t="s">
         <v>348</v>
       </c>
@@ -9864,7 +9870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A183" s="4" t="s">
         <v>280</v>
       </c>
@@ -9893,7 +9899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A184" s="4" t="s">
         <v>279</v>
       </c>
@@ -9925,7 +9931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A185" s="4" t="s">
         <v>409</v>
       </c>
@@ -9954,7 +9960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A186" s="4" t="s">
         <v>410</v>
       </c>
@@ -9983,7 +9989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A187" s="4" t="s">
         <v>411</v>
       </c>
@@ -10012,7 +10018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A188" s="4" t="s">
         <v>411</v>
       </c>
@@ -10041,7 +10047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A189" s="4" t="s">
         <v>413</v>
       </c>
@@ -10070,7 +10076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A190" s="4" t="s">
         <v>415</v>
       </c>
@@ -10099,7 +10105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A191" s="4" t="s">
         <v>919</v>
       </c>
@@ -10131,7 +10137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A192" s="4" t="s">
         <v>919</v>
       </c>
@@ -10160,7 +10166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A193" s="4" t="s">
         <v>398</v>
       </c>
@@ -10189,7 +10195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A194" s="4" t="s">
         <v>408</v>
       </c>
@@ -10218,7 +10224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A195" s="4" t="s">
         <v>407</v>
       </c>
@@ -10247,7 +10253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A196" s="4" t="s">
         <v>406</v>
       </c>
@@ -10276,7 +10282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A197" s="4" t="s">
         <v>403</v>
       </c>
@@ -10305,7 +10311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A198" s="4" t="s">
         <v>400</v>
       </c>
@@ -10340,7 +10346,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A199" s="4" t="s">
         <v>375</v>
       </c>
@@ -10375,7 +10381,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A200" s="4" t="s">
         <v>498</v>
       </c>
@@ -10416,7 +10422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A201" s="4" t="s">
         <v>886</v>
       </c>
@@ -10445,7 +10451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A202" s="4" t="s">
         <v>886</v>
       </c>
@@ -10474,7 +10480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A203" s="4" t="s">
         <v>873</v>
       </c>
@@ -10503,7 +10509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A204" s="4" t="s">
         <v>881</v>
       </c>
@@ -10532,7 +10538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A205" s="4" t="s">
         <v>881</v>
       </c>
@@ -10564,7 +10570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A206" s="4" t="s">
         <v>882</v>
       </c>
@@ -10596,7 +10602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A207" s="4" t="s">
         <v>884</v>
       </c>
@@ -10628,7 +10634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A208" s="4" t="s">
         <v>878</v>
       </c>
@@ -10657,7 +10663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A209" s="4" t="s">
         <v>729</v>
       </c>
@@ -10689,7 +10695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A210" s="4" t="s">
         <v>705</v>
       </c>
@@ -10721,7 +10727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A211" s="4" t="s">
         <v>876</v>
       </c>
@@ -10750,7 +10756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A212" s="4" t="s">
         <v>707</v>
       </c>
@@ -10779,7 +10785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A213" s="4" t="s">
         <v>11</v>
       </c>
@@ -10826,7 +10832,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A214" s="4" t="s">
         <v>555</v>
       </c>
@@ -10855,7 +10861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A215" s="4" t="s">
         <v>555</v>
       </c>
@@ -10884,7 +10890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A216" s="4" t="s">
         <v>435</v>
       </c>
@@ -10916,7 +10922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A217" s="4" t="s">
         <v>553</v>
       </c>
@@ -10945,7 +10951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A218" s="4" t="s">
         <v>551</v>
       </c>
@@ -10974,7 +10980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A219" s="4" t="s">
         <v>551</v>
       </c>
@@ -11015,7 +11021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A220" s="4" t="s">
         <v>734</v>
       </c>
@@ -11044,7 +11050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A221" s="4" t="s">
         <v>548</v>
       </c>
@@ -11073,7 +11079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A222" s="4" t="s">
         <v>542</v>
       </c>
@@ -11114,7 +11120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A223" s="4" t="s">
         <v>558</v>
       </c>
@@ -11143,7 +11149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A224" s="4" t="s">
         <v>561</v>
       </c>
@@ -11172,7 +11178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A225" s="4" t="s">
         <v>557</v>
       </c>
@@ -11201,7 +11207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A226" s="4" t="s">
         <v>538</v>
       </c>
@@ -11230,7 +11236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A227" s="4" t="s">
         <v>867</v>
       </c>
@@ -11259,7 +11265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A228" s="4" t="s">
         <v>867</v>
       </c>
@@ -11288,7 +11294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A229" s="4" t="s">
         <v>867</v>
       </c>
@@ -11320,7 +11326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A230" s="4" t="s">
         <v>869</v>
       </c>
@@ -11349,7 +11355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A231" s="4" t="s">
         <v>869</v>
       </c>
@@ -11381,7 +11387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A232" s="4" t="s">
         <v>868</v>
       </c>
@@ -11410,7 +11416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A233" s="4" t="s">
         <v>537</v>
       </c>
@@ -11439,7 +11445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A234" s="4" t="s">
         <v>536</v>
       </c>
@@ -11468,7 +11474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A235" s="4" t="s">
         <v>906</v>
       </c>
@@ -11512,7 +11518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A236" s="4" t="s">
         <v>142</v>
       </c>
@@ -11553,7 +11559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A237" s="4" t="s">
         <v>907</v>
       </c>
@@ -11594,7 +11600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A238" s="4" t="s">
         <v>106</v>
       </c>
@@ -11635,7 +11641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A239" s="4" t="s">
         <v>900</v>
       </c>
@@ -11664,7 +11670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A240" s="4" t="s">
         <v>898</v>
       </c>
@@ -11693,7 +11699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A241" s="4" t="s">
         <v>896</v>
       </c>
@@ -11722,7 +11728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A242" s="4" t="s">
         <v>889</v>
       </c>
@@ -11751,7 +11757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A243" s="4" t="s">
         <v>890</v>
       </c>
@@ -11780,7 +11786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A244" s="4" t="s">
         <v>895</v>
       </c>
@@ -11809,7 +11815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A245" s="4" t="s">
         <v>145</v>
       </c>
@@ -11838,7 +11844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A246" s="4" t="s">
         <v>894</v>
       </c>
@@ -11870,7 +11876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A247" s="4" t="s">
         <v>358</v>
       </c>
@@ -11899,7 +11905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A248" s="4" t="s">
         <v>141</v>
       </c>
@@ -11928,7 +11934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A249" s="4" t="s">
         <v>141</v>
       </c>
@@ -11960,7 +11966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A250" s="4" t="s">
         <v>892</v>
       </c>
@@ -11998,7 +12004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A251" s="4" t="s">
         <v>892</v>
       </c>
@@ -12036,7 +12042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A252" s="4" t="s">
         <v>893</v>
       </c>
@@ -12071,7 +12077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A253" s="4" t="s">
         <v>576</v>
       </c>
@@ -12100,7 +12106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A254" s="4" t="s">
         <v>577</v>
       </c>
@@ -12129,7 +12135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A255" s="4" t="s">
         <v>577</v>
       </c>
@@ -12158,7 +12164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A256" s="4" t="s">
         <v>395</v>
       </c>
@@ -12190,7 +12196,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="257" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A257" s="4" t="s">
         <v>394</v>
       </c>
@@ -12222,7 +12228,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="258" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A258" s="4" t="s">
         <v>393</v>
       </c>
@@ -12254,7 +12260,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="259" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A259" s="4" t="s">
         <v>399</v>
       </c>
@@ -12286,7 +12292,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="260" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A260" s="4" t="s">
         <v>386</v>
       </c>
@@ -12318,7 +12324,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="261" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A261" s="4" t="s">
         <v>574</v>
       </c>
@@ -12347,7 +12353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A262" s="4" t="s">
         <v>585</v>
       </c>
@@ -12376,7 +12382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A263" s="4" t="s">
         <v>586</v>
       </c>
@@ -12405,7 +12411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A264" s="4" t="s">
         <v>584</v>
       </c>
@@ -12434,7 +12440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A265" s="4" t="s">
         <v>909</v>
       </c>
@@ -12463,7 +12469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A266" s="4" t="s">
         <v>891</v>
       </c>
@@ -12492,7 +12498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A267" s="4" t="s">
         <v>133</v>
       </c>
@@ -12524,7 +12530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A268" s="4" t="s">
         <v>133</v>
       </c>
@@ -12553,7 +12559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A269" s="4" t="s">
         <v>387</v>
       </c>
@@ -12582,7 +12588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A270" s="4" t="s">
         <v>385</v>
       </c>
@@ -12611,7 +12617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A271" s="4" t="s">
         <v>569</v>
       </c>
@@ -12643,7 +12649,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="272" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A272" s="4" t="s">
         <v>569</v>
       </c>
@@ -12678,7 +12684,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="273" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A273" s="4" t="s">
         <v>568</v>
       </c>
@@ -12710,7 +12716,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="274" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A274" s="4" t="s">
         <v>564</v>
       </c>
@@ -12739,7 +12745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A275" s="4" t="s">
         <v>494</v>
       </c>
@@ -12768,7 +12774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A276" s="4" t="s">
         <v>491</v>
       </c>
@@ -12800,7 +12806,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="277" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A277" s="4" t="s">
         <v>888</v>
       </c>
@@ -12829,7 +12835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A278" s="4" t="s">
         <v>1008</v>
       </c>
@@ -12858,7 +12864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A279" s="4" t="s">
         <v>1005</v>
       </c>
@@ -12887,7 +12893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A280" s="4" t="s">
         <v>1014</v>
       </c>
@@ -12916,7 +12922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A281" s="4" t="s">
         <v>1014</v>
       </c>
@@ -12948,7 +12954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A282" s="4" t="s">
         <v>1015</v>
       </c>
@@ -12977,7 +12983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A283" s="4" t="s">
         <v>134</v>
       </c>
@@ -13006,7 +13012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A284" s="4" t="s">
         <v>134</v>
       </c>
@@ -13038,7 +13044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A285" s="4" t="s">
         <v>1003</v>
       </c>
@@ -13067,7 +13073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A286" s="4" t="s">
         <v>754</v>
       </c>
@@ -13096,7 +13102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A287" s="4" t="s">
         <v>757</v>
       </c>
@@ -13128,7 +13134,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="288" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A288" s="4" t="s">
         <v>995</v>
       </c>
@@ -13160,7 +13166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A289" s="4" t="s">
         <v>997</v>
       </c>
@@ -13189,7 +13195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A290" s="4" t="s">
         <v>998</v>
       </c>
@@ -13218,7 +13224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A291" s="4" t="s">
         <v>999</v>
       </c>
@@ -13247,7 +13253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A292" s="4" t="s">
         <v>1000</v>
       </c>
@@ -13276,7 +13282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A293" s="4" t="s">
         <v>489</v>
       </c>
@@ -13305,7 +13311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A294" s="4" t="s">
         <v>692</v>
       </c>
@@ -13340,7 +13346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A295" s="4" t="s">
         <v>692</v>
       </c>
@@ -13375,7 +13381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A296" s="4" t="s">
         <v>693</v>
       </c>
@@ -13410,7 +13416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A297" s="4" t="s">
         <v>495</v>
       </c>
@@ -13439,7 +13445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A298" s="4" t="s">
         <v>496</v>
       </c>
@@ -13468,7 +13474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A299" s="4" t="s">
         <v>497</v>
       </c>
@@ -13500,7 +13506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A300" s="4" t="s">
         <v>253</v>
       </c>
@@ -13529,7 +13535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A301" s="4" t="s">
         <v>255</v>
       </c>
@@ -13558,7 +13564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A302" s="4" t="s">
         <v>256</v>
       </c>
@@ -13587,7 +13593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A303" s="4" t="s">
         <v>257</v>
       </c>
@@ -13616,7 +13622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A304" s="4" t="s">
         <v>258</v>
       </c>
@@ -13648,7 +13654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A305" s="4" t="s">
         <v>1036</v>
       </c>
@@ -13677,7 +13683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A306" s="4" t="s">
         <v>135</v>
       </c>
@@ -13706,7 +13712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A307" s="4" t="s">
         <v>135</v>
       </c>
@@ -13738,7 +13744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A308" s="4" t="s">
         <v>130</v>
       </c>
@@ -13767,7 +13773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A309" s="4" t="s">
         <v>1034</v>
       </c>
@@ -13796,7 +13802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A310" s="4" t="s">
         <v>1032</v>
       </c>
@@ -13825,7 +13831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A311" s="4" t="s">
         <v>414</v>
       </c>
@@ -13854,7 +13860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A312" s="4" t="s">
         <v>480</v>
       </c>
@@ -13883,7 +13889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A313" s="4" t="s">
         <v>477</v>
       </c>
@@ -13912,7 +13918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A314" s="4" t="s">
         <v>487</v>
       </c>
@@ -13941,7 +13947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A315" s="4" t="s">
         <v>515</v>
       </c>
@@ -13970,7 +13976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A316" s="4" t="s">
         <v>368</v>
       </c>
@@ -14011,7 +14017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A317" s="4" t="s">
         <v>365</v>
       </c>
@@ -14052,7 +14058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A318" s="4" t="s">
         <v>366</v>
       </c>
@@ -14093,7 +14099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A319" s="4" t="s">
         <v>1030</v>
       </c>
@@ -14134,7 +14140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A320" s="4" t="s">
         <v>367</v>
       </c>
@@ -14178,7 +14184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A321" s="4" t="s">
         <v>22</v>
       </c>
@@ -14207,7 +14213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A322" s="4" t="s">
         <v>843</v>
       </c>
@@ -14242,7 +14248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A323" s="4" t="s">
         <v>826</v>
       </c>
@@ -14277,7 +14283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A324" s="4" t="s">
         <v>1038</v>
       </c>
@@ -14306,7 +14312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A325" s="4" t="s">
         <v>188</v>
       </c>
@@ -14335,7 +14341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A326" s="4" t="s">
         <v>187</v>
       </c>
@@ -14364,7 +14370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A327" s="4" t="s">
         <v>187</v>
       </c>
@@ -14396,7 +14402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A328" s="4" t="s">
         <v>502</v>
       </c>
@@ -14428,7 +14434,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="329" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A329" s="4" t="s">
         <v>376</v>
       </c>
@@ -14460,7 +14466,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="330" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A330" s="4" t="s">
         <v>1023</v>
       </c>
@@ -14489,7 +14495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A331" s="4" t="s">
         <v>1027</v>
       </c>
@@ -14518,7 +14524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A332" s="4" t="s">
         <v>1022</v>
       </c>
@@ -14547,7 +14553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A333" s="4" t="s">
         <v>1022</v>
       </c>
@@ -14579,7 +14585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A334" s="4" t="s">
         <v>1020</v>
       </c>
@@ -14611,7 +14617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A335" s="4" t="s">
         <v>829</v>
       </c>
@@ -14655,7 +14661,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="336" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A336" s="4" t="s">
         <v>1029</v>
       </c>
@@ -14684,7 +14690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A337" s="4" t="s">
         <v>144</v>
       </c>
@@ -14713,7 +14719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A338" s="4" t="s">
         <v>144</v>
       </c>
@@ -14745,7 +14751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A339" s="4" t="s">
         <v>963</v>
       </c>
@@ -14774,7 +14780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A340" s="4" t="s">
         <v>963</v>
       </c>
@@ -14806,7 +14812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A341" s="4" t="s">
         <v>956</v>
       </c>
@@ -14838,7 +14844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A342" s="4" t="s">
         <v>987</v>
       </c>
@@ -14870,7 +14876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A343" s="4" t="s">
         <v>1017</v>
       </c>
@@ -14902,7 +14908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A344" s="4" t="s">
         <v>961</v>
       </c>
@@ -14934,7 +14940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A345" s="4" t="s">
         <v>962</v>
       </c>
@@ -14963,7 +14969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A346" s="4" t="s">
         <v>962</v>
       </c>
@@ -14995,7 +15001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A347" s="4" t="s">
         <v>147</v>
       </c>
@@ -15024,7 +15030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A348" s="4" t="s">
         <v>960</v>
       </c>
@@ -15065,7 +15071,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="349" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A349" s="4" t="s">
         <v>958</v>
       </c>
@@ -15103,7 +15109,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="350" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A350" s="4" t="s">
         <v>306</v>
       </c>
@@ -15138,7 +15144,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="351" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A351" s="4" t="s">
         <v>312</v>
       </c>
@@ -15179,7 +15185,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="352" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A352" s="4" t="s">
         <v>311</v>
       </c>
@@ -15220,7 +15226,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="353" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A353" s="4" t="s">
         <v>311</v>
       </c>
@@ -15264,7 +15270,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="354" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A354" s="4" t="s">
         <v>587</v>
       </c>
@@ -15305,7 +15311,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="355" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A355" s="4" t="s">
         <v>476</v>
       </c>
@@ -15349,7 +15355,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="356" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A356" s="4" t="s">
         <v>476</v>
       </c>
@@ -15390,7 +15396,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="357" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A357" s="4" t="s">
         <v>922</v>
       </c>
@@ -15431,7 +15437,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="358" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A358" s="4" t="s">
         <v>920</v>
       </c>
@@ -15472,7 +15478,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="359" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A359" s="4" t="s">
         <v>284</v>
       </c>
@@ -15513,7 +15519,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="360" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A360" s="4" t="s">
         <v>277</v>
       </c>
@@ -15554,7 +15560,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="361" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A361" s="4" t="s">
         <v>277</v>
       </c>
@@ -15598,7 +15604,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="362" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A362" s="4" t="s">
         <v>911</v>
       </c>
@@ -15642,7 +15648,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="363" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A363" s="4" t="s">
         <v>911</v>
       </c>
@@ -15683,7 +15689,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="364" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A364" s="4" t="s">
         <v>468</v>
       </c>
@@ -15724,7 +15730,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="365" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A365" s="4" t="s">
         <v>469</v>
       </c>
@@ -15765,7 +15771,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="366" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A366" s="4" t="s">
         <v>941</v>
       </c>
@@ -15806,7 +15812,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="367" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A367" s="4" t="s">
         <v>941</v>
       </c>
@@ -15850,7 +15856,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="368" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A368" s="4" t="s">
         <v>942</v>
       </c>
@@ -15891,7 +15897,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="369" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A369" s="4" t="s">
         <v>934</v>
       </c>
@@ -15932,7 +15938,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="370" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A370" s="4" t="s">
         <v>934</v>
       </c>
@@ -15976,7 +15982,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="371" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A371" s="4" t="s">
         <v>887</v>
       </c>
@@ -16017,7 +16023,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="372" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A372" s="4" t="s">
         <v>887</v>
       </c>
@@ -16061,7 +16067,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="373" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A373" s="4" t="s">
         <v>871</v>
       </c>
@@ -16102,7 +16108,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="374" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A374" s="4" t="s">
         <v>866</v>
       </c>
@@ -16143,7 +16149,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="375" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A375" s="4" t="s">
         <v>897</v>
       </c>
@@ -16184,7 +16190,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="376" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A376" s="4" t="s">
         <v>897</v>
       </c>
@@ -16228,7 +16234,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="377" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A377" s="4" t="s">
         <v>908</v>
       </c>
@@ -16269,7 +16275,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="378" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A378" s="4" t="s">
         <v>976</v>
       </c>
@@ -16310,7 +16316,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="379" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A379" s="4" t="s">
         <v>1007</v>
       </c>
@@ -16351,7 +16357,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="380" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A380" s="4" t="s">
         <v>1028</v>
       </c>
@@ -16395,7 +16401,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="381" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A381" s="4" t="s">
         <v>1028</v>
       </c>
@@ -16436,7 +16442,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="382" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A382" s="4" t="s">
         <v>1026</v>
       </c>
@@ -16477,7 +16483,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="383" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A383" s="4" t="s">
         <v>832</v>
       </c>
@@ -16518,7 +16524,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="384" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A384" s="4" t="s">
         <v>833</v>
       </c>
@@ -16559,7 +16565,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="385" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A385" s="4" t="s">
         <v>981</v>
       </c>
@@ -16600,7 +16606,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="386" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A386" s="4" t="s">
         <v>262</v>
       </c>
@@ -16629,7 +16635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A387" s="4" t="s">
         <v>210</v>
       </c>
@@ -16658,7 +16664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A388" s="4" t="s">
         <v>146</v>
       </c>
@@ -16687,7 +16693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A389" s="4" t="s">
         <v>212</v>
       </c>
@@ -16716,7 +16722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A390" s="4" t="s">
         <v>218</v>
       </c>
@@ -16745,7 +16751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A391" s="4" t="s">
         <v>643</v>
       </c>
@@ -16786,7 +16792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A392" s="4" t="s">
         <v>592</v>
       </c>
@@ -16827,7 +16833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A393" s="4" t="s">
         <v>167</v>
       </c>
@@ -16856,7 +16862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A394" s="4" t="s">
         <v>340</v>
       </c>
@@ -16885,7 +16891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A395" s="4" t="s">
         <v>341</v>
       </c>
@@ -16914,7 +16920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A396" s="4" t="s">
         <v>240</v>
       </c>
@@ -16943,7 +16949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A397" s="4" t="s">
         <v>261</v>
       </c>
@@ -16972,7 +16978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A398" s="4" t="s">
         <v>381</v>
       </c>
@@ -17004,7 +17010,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="399" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A399" s="4" t="s">
         <v>424</v>
       </c>
@@ -17033,7 +17039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A400" s="4" t="s">
         <v>530</v>
       </c>
@@ -17062,7 +17068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A401" s="4" t="s">
         <v>208</v>
       </c>
@@ -17091,7 +17097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A402" s="4" t="s">
         <v>206</v>
       </c>
@@ -17120,7 +17126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A403" s="4" t="s">
         <v>535</v>
       </c>
@@ -17149,7 +17155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A404" s="4" t="s">
         <v>204</v>
       </c>
@@ -17178,7 +17184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A405" s="4" t="s">
         <v>392</v>
       </c>
@@ -17210,7 +17216,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="406" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A406" s="4" t="s">
         <v>391</v>
       </c>
@@ -17242,7 +17248,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="407" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A407" s="4" t="s">
         <v>570</v>
       </c>
@@ -17271,7 +17277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A408" s="4" t="s">
         <v>565</v>
       </c>
@@ -17303,7 +17309,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="409" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A409" s="4" t="s">
         <v>565</v>
       </c>
@@ -17338,7 +17344,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="410" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A410" s="4" t="s">
         <v>186</v>
       </c>
@@ -17367,7 +17373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A411" s="4" t="s">
         <v>563</v>
       </c>
@@ -17396,7 +17402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A412" s="4" t="s">
         <v>490</v>
       </c>
@@ -17428,7 +17434,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="413" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A413" s="4" t="s">
         <v>260</v>
       </c>
@@ -17457,7 +17463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A414" s="4" t="s">
         <v>479</v>
       </c>
@@ -17486,7 +17492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A415" s="4" t="s">
         <v>478</v>
       </c>
@@ -17515,7 +17521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A416" s="4" t="s">
         <v>202</v>
       </c>
@@ -17544,7 +17550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A417" s="4" t="s">
         <v>488</v>
       </c>
@@ -17573,7 +17579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A418" s="4" t="s">
         <v>201</v>
       </c>
@@ -17602,7 +17608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A419" s="4" t="s">
         <v>200</v>
       </c>
@@ -17631,7 +17637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A420" s="4" t="s">
         <v>198</v>
       </c>
@@ -17660,7 +17666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A421" s="4" t="s">
         <v>194</v>
       </c>
@@ -17689,7 +17695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A422" s="4" t="s">
         <v>192</v>
       </c>
@@ -17718,7 +17724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A423" s="4" t="s">
         <v>191</v>
       </c>
@@ -17747,7 +17753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A424" s="4" t="s">
         <v>190</v>
       </c>
@@ -17776,7 +17782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A425" s="4" t="s">
         <v>189</v>
       </c>
@@ -17805,7 +17811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A426" s="4" t="s">
         <v>296</v>
       </c>
@@ -17834,7 +17840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A427" s="4" t="s">
         <v>282</v>
       </c>
@@ -17863,7 +17869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A428" s="4" t="s">
         <v>165</v>
       </c>
@@ -17895,7 +17901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A429" s="4" t="s">
         <v>165</v>
       </c>
@@ -17924,7 +17930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A430" s="4" t="s">
         <v>957</v>
       </c>
@@ -17956,7 +17962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A431" s="4" t="s">
         <v>957</v>
       </c>
@@ -17985,7 +17991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A432" s="4" t="s">
         <v>342</v>
       </c>
@@ -18014,7 +18020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A433" s="4" t="s">
         <v>342</v>
       </c>
@@ -18046,7 +18052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A434" s="4" t="s">
         <v>954</v>
       </c>
@@ -18075,7 +18081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A435" s="4" t="s">
         <v>954</v>
       </c>
@@ -18107,7 +18113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A436" s="4" t="s">
         <v>955</v>
       </c>
@@ -18136,7 +18142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A437" s="4" t="s">
         <v>955</v>
       </c>
@@ -18168,7 +18174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A438" s="4" t="s">
         <v>953</v>
       </c>
@@ -18197,7 +18203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A439" s="4" t="s">
         <v>136</v>
       </c>
@@ -18226,7 +18232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A440" s="4" t="s">
         <v>136</v>
       </c>
@@ -18258,7 +18264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A441" s="4" t="s">
         <v>951</v>
       </c>
@@ -18287,7 +18293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A442" s="4" t="s">
         <v>952</v>
       </c>
@@ -18316,7 +18322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A443" s="4" t="s">
         <v>986</v>
       </c>
@@ -18345,7 +18351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A444" s="4" t="s">
         <v>950</v>
       </c>
@@ -18377,7 +18383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A445" s="4" t="s">
         <v>949</v>
       </c>
@@ -18409,7 +18415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A446" s="4" t="s">
         <v>949</v>
       </c>
@@ -18438,7 +18444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A447" s="4" t="s">
         <v>965</v>
       </c>
@@ -18467,7 +18473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A448" s="4" t="s">
         <v>965</v>
       </c>
@@ -18499,7 +18505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A449" s="4" t="s">
         <v>137</v>
       </c>
@@ -18530,7 +18536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A450" s="4" t="s">
         <v>137</v>
       </c>
@@ -18562,7 +18568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A451" s="4" t="s">
         <v>138</v>
       </c>
@@ -18594,7 +18600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A452" s="4" t="s">
         <v>138</v>
       </c>
@@ -18623,7 +18629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A453" s="4" t="s">
         <v>984</v>
       </c>
@@ -18652,7 +18658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A454" s="4" t="s">
         <v>985</v>
       </c>
@@ -18681,7 +18687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A455" s="4" t="s">
         <v>383</v>
       </c>
@@ -18713,7 +18719,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="456" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A456" s="4" t="s">
         <v>595</v>
       </c>
@@ -18742,7 +18748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A457" s="4" t="s">
         <v>597</v>
       </c>
@@ -18774,7 +18780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A458" s="4" t="s">
         <v>265</v>
       </c>
@@ -18803,7 +18809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A459" s="4" t="s">
         <v>211</v>
       </c>
@@ -18832,7 +18838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A460" s="4" t="s">
         <v>195</v>
       </c>
@@ -18861,7 +18867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A461" s="4" t="s">
         <v>193</v>
       </c>
@@ -18890,7 +18896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A462" s="4" t="s">
         <v>330</v>
       </c>
@@ -18922,7 +18928,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="463" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A463" s="4" t="s">
         <v>328</v>
       </c>
@@ -18954,7 +18960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A464" s="4" t="s">
         <v>327</v>
       </c>
@@ -18983,7 +18989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A465" s="4" t="s">
         <v>336</v>
       </c>
@@ -19012,7 +19018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A466" s="4" t="s">
         <v>334</v>
       </c>
@@ -19041,7 +19047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A467" s="4" t="s">
         <v>350</v>
       </c>
@@ -19070,7 +19076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A468" s="4" t="s">
         <v>350</v>
       </c>
@@ -19102,7 +19108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A469" s="4" t="s">
         <v>309</v>
       </c>
@@ -19143,7 +19149,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="470" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A470" s="4" t="s">
         <v>738</v>
       </c>
@@ -19178,7 +19184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A471" s="4" t="s">
         <v>653</v>
       </c>
@@ -19219,7 +19225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A472" s="4" t="s">
         <v>756</v>
       </c>
@@ -19254,7 +19260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A473" s="4" t="s">
         <v>775</v>
       </c>
@@ -19295,7 +19301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A474" s="4" t="s">
         <v>102</v>
       </c>
@@ -19336,7 +19342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A475" s="4" t="s">
         <v>774</v>
       </c>
@@ -19377,7 +19383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A476" s="4" t="s">
         <v>380</v>
       </c>
@@ -19403,7 +19409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A477" s="4" t="s">
         <v>25</v>
       </c>
@@ -19429,7 +19435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A478" s="4" t="s">
         <v>671</v>
       </c>
@@ -19476,7 +19482,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="479" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A479" s="4" t="s">
         <v>808</v>
       </c>
@@ -19526,7 +19532,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="480" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A480" s="4" t="s">
         <v>794</v>
       </c>
@@ -19555,7 +19561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A481" s="4" t="s">
         <v>379</v>
       </c>
@@ -19581,7 +19587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A482" s="4" t="s">
         <v>718</v>
       </c>
@@ -19631,7 +19637,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="483" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A483" s="4" t="s">
         <v>718</v>
       </c>
@@ -19678,7 +19684,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="484" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A484" s="4" t="s">
         <v>802</v>
       </c>
@@ -19725,7 +19731,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="485" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A485" s="4" t="s">
         <v>742</v>
       </c>
@@ -19760,7 +19766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A486" s="4" t="s">
         <v>780</v>
       </c>
@@ -19795,7 +19801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A487" s="4" t="s">
         <v>639</v>
       </c>
@@ -19830,7 +19836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A488" s="4" t="s">
         <v>291</v>
       </c>
@@ -19871,7 +19877,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="489" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A489" s="4" t="s">
         <v>781</v>
       </c>
@@ -19906,7 +19912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A490" s="4" t="s">
         <v>782</v>
       </c>
@@ -19941,7 +19947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A491" s="4" t="s">
         <v>809</v>
       </c>
@@ -19982,7 +19988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A492" s="4" t="s">
         <v>821</v>
       </c>
@@ -20017,7 +20023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A493" s="4" t="s">
         <v>627</v>
       </c>
@@ -20058,7 +20064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A494" s="4" t="s">
         <v>630</v>
       </c>
@@ -20099,7 +20105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A495" s="4" t="s">
         <v>638</v>
       </c>
@@ -20134,7 +20140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A496" s="4" t="s">
         <v>696</v>
       </c>
@@ -20181,7 +20187,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="497" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A497" s="4" t="s">
         <v>979</v>
       </c>
@@ -20228,7 +20234,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="498" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A498" s="4" t="s">
         <v>918</v>
       </c>
@@ -20275,7 +20281,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="499" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A499" s="4" t="s">
         <v>929</v>
       </c>
@@ -20322,7 +20328,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="500" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A500" s="4" t="s">
         <v>672</v>
       </c>
@@ -20369,7 +20375,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="501" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A501" s="4" t="s">
         <v>664</v>
       </c>
@@ -20416,7 +20422,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="502" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A502" s="4" t="s">
         <v>783</v>
       </c>
@@ -20463,7 +20469,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="503" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A503" s="4" t="s">
         <v>785</v>
       </c>
@@ -20510,7 +20516,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="504" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A504" s="4" t="s">
         <v>670</v>
       </c>
@@ -20557,7 +20563,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="505" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A505" s="4" t="s">
         <v>682</v>
       </c>
@@ -20604,7 +20610,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="506" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A506" s="4" t="s">
         <v>688</v>
       </c>
@@ -20657,7 +20663,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="507" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A507" s="4" t="s">
         <v>708</v>
       </c>
@@ -20707,7 +20713,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="508" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A508" s="4" t="s">
         <v>292</v>
       </c>
@@ -20754,7 +20760,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="509" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A509" s="4" t="s">
         <v>912</v>
       </c>
@@ -20804,7 +20810,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="510" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A510" s="4" t="s">
         <v>973</v>
       </c>
@@ -20851,7 +20857,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="511" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A511" s="4" t="s">
         <v>948</v>
       </c>
@@ -20901,7 +20907,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="512" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A512" s="4" t="s">
         <v>713</v>
       </c>
@@ -20948,7 +20954,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="513" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A513" s="4" t="s">
         <v>804</v>
       </c>
@@ -20995,7 +21001,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="514" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A514" s="4" t="s">
         <v>799</v>
       </c>
@@ -21042,7 +21048,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="515" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A515" s="4" t="s">
         <v>658</v>
       </c>
@@ -21089,7 +21095,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="516" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A516" s="4" t="s">
         <v>659</v>
       </c>
@@ -21139,7 +21145,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="517" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A517" s="4" t="s">
         <v>703</v>
       </c>
@@ -21189,7 +21195,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="518" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A518" s="4" t="s">
         <v>677</v>
       </c>
@@ -21239,7 +21245,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="519" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A519" s="4" t="s">
         <v>286</v>
       </c>
@@ -21286,7 +21292,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="520" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A520" s="4" t="s">
         <v>786</v>
       </c>
@@ -21330,7 +21336,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="521" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A521" s="4" t="s">
         <v>694</v>
       </c>
@@ -21380,7 +21386,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="522" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A522" s="4" t="s">
         <v>694</v>
       </c>
@@ -21427,7 +21433,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="523" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A523" s="4" t="s">
         <v>714</v>
       </c>
@@ -21474,7 +21480,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="524" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A524" s="4" t="s">
         <v>97</v>
       </c>
@@ -21509,7 +21515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A525" s="4" t="s">
         <v>388</v>
       </c>
@@ -21535,7 +21541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A526" s="4" t="s">
         <v>388</v>
       </c>
@@ -21567,7 +21573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A527" s="4" t="s">
         <v>790</v>
       </c>
@@ -21614,7 +21620,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="528" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A528" s="4" t="s">
         <v>764</v>
       </c>
@@ -21655,7 +21661,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="529" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A529" s="4" t="s">
         <v>777</v>
       </c>
@@ -21696,7 +21702,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="530" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A530" s="4" t="s">
         <v>685</v>
       </c>
@@ -21737,7 +21743,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="531" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A531" s="4" t="s">
         <v>686</v>
       </c>
@@ -21778,7 +21784,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="532" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A532" s="4" t="s">
         <v>665</v>
       </c>
@@ -21819,7 +21825,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="533" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A533" s="4" t="s">
         <v>667</v>
       </c>
@@ -21860,7 +21866,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="534" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A534" s="4" t="s">
         <v>838</v>
       </c>
@@ -21910,7 +21916,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="535" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A535" s="4" t="s">
         <v>661</v>
       </c>
@@ -21951,7 +21957,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="536" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A536" s="4" t="s">
         <v>719</v>
       </c>
@@ -21995,7 +22001,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="537" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A537" s="4" t="s">
         <v>760</v>
       </c>
@@ -22036,7 +22042,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="538" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A538" s="4" t="s">
         <v>735</v>
       </c>
@@ -22080,7 +22086,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="539" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A539" s="4" t="s">
         <v>397</v>
       </c>
@@ -22106,7 +22112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A540" s="4" t="s">
         <v>679</v>
       </c>
@@ -22147,7 +22153,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="541" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A541" s="4" t="s">
         <v>854</v>
       </c>
@@ -22191,7 +22197,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="542" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A542" s="4" t="s">
         <v>709</v>
       </c>
@@ -22235,7 +22241,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="543" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A543" s="4" t="s">
         <v>716</v>
       </c>
@@ -22282,7 +22288,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="544" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A544" s="4" t="s">
         <v>704</v>
       </c>
@@ -22326,7 +22332,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="545" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A545" s="4" t="s">
         <v>739</v>
       </c>
@@ -22364,7 +22370,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="546" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A546" s="4" t="s">
         <v>722</v>
       </c>
@@ -22405,7 +22411,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="547" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A547" s="4" t="s">
         <v>724</v>
       </c>
@@ -22446,7 +22452,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="548" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A548" s="4" t="s">
         <v>293</v>
       </c>
@@ -22487,7 +22493,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="549" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A549" s="4" t="s">
         <v>293</v>
       </c>
@@ -22531,7 +22537,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="550" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A550" s="4" t="s">
         <v>293</v>
       </c>
@@ -22575,7 +22581,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="551" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A551" s="4" t="s">
         <v>288</v>
       </c>
@@ -22616,7 +22622,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="552" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A552" s="4" t="s">
         <v>974</v>
       </c>
@@ -22657,7 +22663,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="553" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A553" s="4" t="s">
         <v>974</v>
       </c>
@@ -22701,7 +22707,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="554" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A554" s="4" t="s">
         <v>946</v>
       </c>
@@ -22742,7 +22748,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="555" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A555" s="4" t="s">
         <v>864</v>
       </c>
@@ -22783,7 +22789,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="556" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A556" s="4" t="s">
         <v>977</v>
       </c>
@@ -22824,7 +22830,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="557" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A557" s="4" t="s">
         <v>967</v>
       </c>
@@ -22865,7 +22871,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="558" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A558" s="4" t="s">
         <v>968</v>
       </c>
@@ -22906,7 +22912,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="559" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A559" s="4" t="s">
         <v>969</v>
       </c>
@@ -22947,7 +22953,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="560" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A560" s="4" t="s">
         <v>913</v>
       </c>
@@ -22988,7 +22994,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="561" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A561" s="4" t="s">
         <v>680</v>
       </c>
@@ -23029,7 +23035,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="562" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A562" s="4" t="s">
         <v>980</v>
       </c>
@@ -23070,7 +23076,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="563" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A563" s="4" t="s">
         <v>966</v>
       </c>
@@ -23111,7 +23117,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="564" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A564" s="4" t="s">
         <v>697</v>
       </c>
@@ -23152,7 +23158,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="565" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A565" s="4" t="s">
         <v>697</v>
       </c>
@@ -23196,7 +23202,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="566" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A566" s="4" t="s">
         <v>914</v>
       </c>
@@ -23237,7 +23243,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="567" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A567" s="4" t="s">
         <v>663</v>
       </c>
@@ -23278,7 +23284,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="568" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A568" s="4" t="s">
         <v>655</v>
       </c>
@@ -23322,7 +23328,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="569" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A569" s="4" t="s">
         <v>674</v>
       </c>
@@ -23366,7 +23372,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="570" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A570" s="4" t="s">
         <v>915</v>
       </c>
@@ -23413,7 +23419,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="571" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A571" s="4" t="s">
         <v>916</v>
       </c>
@@ -23460,7 +23466,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="572" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A572" s="4" t="s">
         <v>668</v>
       </c>
@@ -23501,7 +23507,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="573" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A573" s="4" t="s">
         <v>684</v>
       </c>
@@ -23542,7 +23548,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="574" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A574" s="4" t="s">
         <v>294</v>
       </c>
@@ -23583,7 +23589,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="575" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A575" s="4" t="s">
         <v>975</v>
       </c>
@@ -23624,7 +23630,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="576" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A576" s="4" t="s">
         <v>932</v>
       </c>
@@ -23665,7 +23671,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="577" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A577" s="4" t="s">
         <v>715</v>
       </c>
@@ -23706,7 +23712,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="578" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A578" s="4" t="s">
         <v>728</v>
       </c>
@@ -23741,7 +23747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A579" s="4" t="s">
         <v>88</v>
       </c>
@@ -23776,7 +23782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A580" s="4" t="s">
         <v>746</v>
       </c>
@@ -23817,7 +23823,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="581" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A581" s="4" t="s">
         <v>412</v>
       </c>
@@ -23843,7 +23849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A582" s="4" t="s">
         <v>13</v>
       </c>
@@ -23887,7 +23893,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="583" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A583" s="4" t="s">
         <v>13</v>
       </c>
@@ -23931,7 +23937,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="584" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A584" s="4" t="s">
         <v>423</v>
       </c>
@@ -23960,7 +23966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A585" s="4" t="s">
         <v>56</v>
       </c>
@@ -23995,7 +24001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A586" s="4" t="s">
         <v>853</v>
       </c>
@@ -24030,7 +24036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A587" s="4" t="s">
         <v>856</v>
       </c>
@@ -24068,7 +24074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A588" s="4" t="s">
         <v>805</v>
       </c>
@@ -24118,7 +24124,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="589" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A589" s="4" t="s">
         <v>801</v>
       </c>
@@ -24165,7 +24171,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="590" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A590" s="4" t="s">
         <v>662</v>
       </c>
@@ -24212,7 +24218,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="591" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A591" s="4" t="s">
         <v>681</v>
       </c>
@@ -24259,7 +24265,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="592" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A592" s="4" t="s">
         <v>803</v>
       </c>
@@ -24306,7 +24312,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="593" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A593" s="4" t="s">
         <v>701</v>
       </c>
@@ -24353,7 +24359,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="594" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A594" s="4" t="s">
         <v>289</v>
       </c>
@@ -24400,7 +24406,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="595" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A595" s="4" t="s">
         <v>970</v>
       </c>
@@ -24447,7 +24453,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="596" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A596" s="4" t="s">
         <v>971</v>
       </c>
@@ -24494,7 +24500,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="597" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A597" s="4" t="s">
         <v>978</v>
       </c>
@@ -24541,7 +24547,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="598" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A598" s="4" t="s">
         <v>917</v>
       </c>
@@ -24588,7 +24594,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="599" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A599" s="4" t="s">
         <v>290</v>
       </c>
@@ -24635,7 +24641,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="600" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A600" s="4" t="s">
         <v>972</v>
       </c>
@@ -24682,7 +24688,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="601" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A601" s="4" t="s">
         <v>710</v>
       </c>
@@ -24729,7 +24735,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="602" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A602" s="4" t="s">
         <v>711</v>
       </c>
@@ -24776,7 +24782,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="603" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A603" s="4" t="s">
         <v>51</v>
       </c>
@@ -24811,7 +24817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A604" s="4" t="s">
         <v>52</v>
       </c>
@@ -24846,7 +24852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A605" s="4" t="s">
         <v>53</v>
       </c>
@@ -24881,7 +24887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A606" s="4" t="s">
         <v>93</v>
       </c>
@@ -24916,7 +24922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A607" s="4" t="s">
         <v>823</v>
       </c>
@@ -24951,7 +24957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A608" s="4" t="s">
         <v>796</v>
       </c>
@@ -24986,7 +24992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A609" s="4" t="s">
         <v>720</v>
       </c>
@@ -25027,7 +25033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A610" s="4" t="s">
         <v>811</v>
       </c>
@@ -25068,7 +25074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A611" s="4" t="s">
         <v>812</v>
       </c>
@@ -25109,7 +25115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A612" s="4" t="s">
         <v>813</v>
       </c>
@@ -25153,7 +25159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A613" s="4" t="s">
         <v>815</v>
       </c>
@@ -25197,7 +25203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A614" s="4" t="s">
         <v>817</v>
       </c>
@@ -25238,7 +25244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A615" s="4" t="s">
         <v>819</v>
       </c>
@@ -25273,7 +25279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A616" s="4" t="s">
         <v>820</v>
       </c>
@@ -25308,7 +25314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A617" s="4" t="s">
         <v>70</v>
       </c>
@@ -25343,7 +25349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A618" s="4" t="s">
         <v>59</v>
       </c>
@@ -25384,7 +25390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A619" s="4" t="s">
         <v>67</v>
       </c>
@@ -25419,7 +25425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A620" s="4" t="s">
         <v>78</v>
       </c>
@@ -25460,7 +25466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A621" s="4" t="s">
         <v>629</v>
       </c>
@@ -25501,7 +25507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A622" s="4" t="s">
         <v>938</v>
       </c>
@@ -25545,7 +25551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A623" s="4" t="s">
         <v>936</v>
       </c>
@@ -25586,7 +25592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A624" s="4" t="s">
         <v>631</v>
       </c>
@@ -25627,7 +25633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A625" s="4" t="s">
         <v>632</v>
       </c>
@@ -25668,7 +25674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A626" s="4" t="s">
         <v>633</v>
       </c>
@@ -25709,7 +25715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A627" s="4" t="s">
         <v>634</v>
       </c>
@@ -25753,7 +25759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A628" s="4" t="s">
         <v>636</v>
       </c>
@@ -25794,7 +25800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A629" s="4" t="s">
         <v>625</v>
       </c>
@@ -25832,7 +25838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A630" s="4" t="s">
         <v>74</v>
       </c>
@@ -25867,7 +25873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A631" s="4" t="s">
         <v>642</v>
       </c>
@@ -25902,7 +25908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A632" s="4" t="s">
         <v>213</v>
       </c>
@@ -25943,7 +25949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A633" s="4" t="s">
         <v>646</v>
       </c>
@@ -25984,7 +25990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A634" s="4" t="s">
         <v>647</v>
       </c>
@@ -26025,7 +26031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A635" s="4" t="s">
         <v>648</v>
       </c>
@@ -26069,7 +26075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A636" s="4" t="s">
         <v>650</v>
       </c>
@@ -26110,7 +26116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A637" s="4" t="s">
         <v>652</v>
       </c>
@@ -26151,7 +26157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A638" s="4" t="s">
         <v>640</v>
       </c>
@@ -26192,7 +26198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A639" s="4" t="s">
         <v>96</v>
       </c>
@@ -26227,7 +26233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A640" s="4" t="s">
         <v>624</v>
       </c>
@@ -26268,7 +26274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A641" s="4" t="s">
         <v>622</v>
       </c>
@@ -26309,7 +26315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A642" s="4" t="s">
         <v>588</v>
       </c>
@@ -26350,7 +26356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A643" s="4" t="s">
         <v>590</v>
       </c>
@@ -26385,7 +26391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A644" s="4" t="s">
         <v>1024</v>
       </c>
@@ -26420,7 +26426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A645" s="4" t="s">
         <v>1024</v>
       </c>
@@ -26458,7 +26464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A646" s="4" t="s">
         <v>1025</v>
       </c>
@@ -26493,7 +26499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A647" s="4" t="s">
         <v>15</v>
       </c>
@@ -26528,7 +26534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A648" s="4" t="s">
         <v>43</v>
       </c>
@@ -26566,7 +26572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A649" s="4" t="s">
         <v>43</v>
       </c>
@@ -26604,7 +26610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A650" s="4" t="s">
         <v>725</v>
       </c>
@@ -26642,7 +26648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A651" s="4" t="s">
         <v>404</v>
       </c>
@@ -26671,7 +26677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A652" s="4" t="s">
         <v>472</v>
       </c>
@@ -26703,7 +26709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A653" s="4" t="s">
         <v>464</v>
       </c>
@@ -26732,7 +26738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A654" s="4" t="s">
         <v>98</v>
       </c>
@@ -26758,7 +26764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A655" s="4" t="s">
         <v>463</v>
       </c>
@@ -26787,7 +26793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A656" s="4" t="s">
         <v>462</v>
       </c>
@@ -26816,7 +26822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A657" s="4" t="s">
         <v>455</v>
       </c>
@@ -26848,7 +26854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A658" s="4" t="s">
         <v>461</v>
       </c>
@@ -26877,7 +26883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A659" s="4" t="s">
         <v>459</v>
       </c>
@@ -26906,7 +26912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A660" s="4" t="s">
         <v>750</v>
       </c>
@@ -26935,7 +26941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A661" s="4" t="s">
         <v>752</v>
       </c>
@@ -26967,7 +26973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A662" s="4" t="s">
         <v>458</v>
       </c>
@@ -26993,7 +26999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A663" s="4" t="s">
         <v>571</v>
       </c>
@@ -27019,7 +27025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A664" s="4" t="s">
         <v>583</v>
       </c>
@@ -27045,7 +27051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A665" s="4" t="s">
         <v>581</v>
       </c>
@@ -27074,7 +27080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A666" s="4" t="s">
         <v>580</v>
       </c>
@@ -27100,7 +27106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A667" s="4" t="s">
         <v>579</v>
       </c>
@@ -27126,7 +27132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A668" s="4" t="s">
         <v>578</v>
       </c>
@@ -27152,7 +27158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A669" s="4" t="s">
         <v>172</v>
       </c>
@@ -27178,7 +27184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A670" s="4" t="s">
         <v>505</v>
       </c>
@@ -27204,7 +27210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A671" s="4" t="s">
         <v>503</v>
       </c>
@@ -27230,7 +27236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A672" s="4" t="s">
         <v>75</v>
       </c>
@@ -27256,7 +27262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A673" s="4" t="s">
         <v>263</v>
       </c>
@@ -27282,7 +27288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A674" s="4" t="s">
         <v>55</v>
       </c>
@@ -27308,7 +27314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A675" s="4" t="s">
         <v>251</v>
       </c>
@@ -27337,7 +27343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A676" s="4" t="s">
         <v>42</v>
       </c>
@@ -27363,7 +27369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A677" s="4" t="s">
         <v>250</v>
       </c>
@@ -27392,7 +27398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A678" s="4" t="s">
         <v>249</v>
       </c>
@@ -27421,7 +27427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A679" s="4" t="s">
         <v>76</v>
       </c>
@@ -27447,7 +27453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A680" s="4" t="s">
         <v>248</v>
       </c>
@@ -27476,7 +27482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A681" s="4" t="s">
         <v>473</v>
       </c>
@@ -27508,7 +27514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A682" s="4" t="s">
         <v>61</v>
       </c>
@@ -27534,7 +27540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A683" s="4" t="s">
         <v>467</v>
       </c>
@@ -27563,7 +27569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A684" s="4" t="s">
         <v>529</v>
       </c>
@@ -27592,7 +27598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A685" s="4" t="s">
         <v>54</v>
       </c>
@@ -27618,7 +27624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A686" s="4" t="s">
         <v>246</v>
       </c>
@@ -27647,7 +27653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A687" s="4" t="s">
         <v>418</v>
       </c>
@@ -27673,7 +27679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A688" s="4" t="s">
         <v>417</v>
       </c>
@@ -27699,7 +27705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A689" s="4" t="s">
         <v>49</v>
       </c>
@@ -27725,7 +27731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A690" s="4" t="s">
         <v>416</v>
       </c>
@@ -27754,7 +27760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A691" s="4" t="s">
         <v>484</v>
       </c>
@@ -27783,7 +27789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A692" s="4" t="s">
         <v>484</v>
       </c>
@@ -27815,7 +27821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A693" s="4" t="s">
         <v>47</v>
       </c>
@@ -27844,7 +27850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A694" s="4" t="s">
         <v>47</v>
       </c>
@@ -27870,7 +27876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A695" s="4" t="s">
         <v>169</v>
       </c>
@@ -27902,7 +27908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A696" s="4" t="s">
         <v>214</v>
       </c>
@@ -27931,7 +27937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A697" s="4" t="s">
         <v>214</v>
       </c>
@@ -27960,7 +27966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A698" s="4" t="s">
         <v>162</v>
       </c>
@@ -27989,7 +27995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A699" s="4" t="s">
         <v>199</v>
       </c>
@@ -28018,7 +28024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A700" s="4" t="s">
         <v>699</v>
       </c>
@@ -28047,7 +28053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A701" s="4" t="s">
         <v>483</v>
       </c>
@@ -28076,7 +28082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A702" s="4" t="s">
         <v>482</v>
       </c>
@@ -28105,7 +28111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A703" s="4" t="s">
         <v>481</v>
       </c>
@@ -28134,7 +28140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A704" s="4" t="s">
         <v>550</v>
       </c>
@@ -28163,7 +28169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A705" s="4" t="s">
         <v>778</v>
       </c>
@@ -28192,7 +28198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A706" s="4" t="s">
         <v>748</v>
       </c>
@@ -28221,7 +28227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A707" s="4" t="s">
         <v>749</v>
       </c>
@@ -28250,7 +28256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A708" s="4" t="s">
         <v>89</v>
       </c>
@@ -28276,7 +28282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A709" s="4" t="s">
         <v>72</v>
       </c>
@@ -28302,7 +28308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A710" s="4" t="s">
         <v>180</v>
       </c>
@@ -28328,7 +28334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A711" s="4" t="s">
         <v>94</v>
       </c>
@@ -28354,7 +28360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A712" s="4" t="s">
         <v>531</v>
       </c>
@@ -28383,7 +28389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A713" s="4" t="s">
         <v>562</v>
       </c>
@@ -28418,7 +28424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A714" s="4" t="s">
         <v>539</v>
       </c>
@@ -28453,7 +28459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A715" s="4" t="s">
         <v>560</v>
       </c>
@@ -28482,7 +28488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A716" s="4" t="s">
         <v>215</v>
       </c>
@@ -28511,7 +28517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A717" s="4" t="s">
         <v>448</v>
       </c>
@@ -28537,7 +28543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A718" s="4" t="s">
         <v>217</v>
       </c>
@@ -28563,7 +28569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A719" s="4" t="s">
         <v>445</v>
       </c>
@@ -28589,7 +28595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A720" s="4" t="s">
         <v>485</v>
       </c>
@@ -28615,7 +28621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A721" s="4" t="s">
         <v>178</v>
       </c>
@@ -28644,7 +28650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A722" s="4" t="s">
         <v>177</v>
       </c>
@@ -28670,7 +28676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A723" s="4" t="s">
         <v>176</v>
       </c>
@@ -28696,7 +28702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A724" s="4" t="s">
         <v>444</v>
       </c>
@@ -28722,7 +28728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A725" s="4" t="s">
         <v>443</v>
       </c>
@@ -28748,7 +28754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A726" s="4" t="s">
         <v>442</v>
       </c>
@@ -28774,7 +28780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A727" s="4" t="s">
         <v>174</v>
       </c>
@@ -28800,7 +28806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A728" s="4" t="s">
         <v>171</v>
       </c>
@@ -28829,7 +28835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A729" s="4" t="s">
         <v>183</v>
       </c>
@@ -28858,7 +28864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A730" s="4" t="s">
         <v>181</v>
       </c>
@@ -28887,7 +28893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A731" s="4" t="s">
         <v>168</v>
       </c>
@@ -28916,7 +28922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A732" s="4" t="s">
         <v>160</v>
       </c>
@@ -28945,7 +28951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A733" s="4" t="s">
         <v>163</v>
       </c>
@@ -28971,7 +28977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A734" s="4" t="s">
         <v>83</v>
       </c>
@@ -28997,7 +29003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A735" s="4" t="s">
         <v>164</v>
       </c>
@@ -29026,7 +29032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A736" s="4" t="s">
         <v>213</v>
       </c>
@@ -29055,7 +29061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A737" s="4" t="s">
         <v>196</v>
       </c>
@@ -29087,7 +29093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A738" s="4" t="s">
         <v>95</v>
       </c>
@@ -29113,7 +29119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A739" s="4" t="s">
         <v>95</v>
       </c>
@@ -29142,7 +29148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A740" s="4" t="s">
         <v>87</v>
       </c>
@@ -29168,7 +29174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="741" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A741" s="4" t="s">
         <v>325</v>
       </c>
@@ -29194,7 +29200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A742" s="4" t="s">
         <v>267</v>
       </c>
@@ -29238,7 +29244,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="743" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A743" s="4" t="s">
         <v>269</v>
       </c>
@@ -29261,7 +29267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A744" s="4" t="s">
         <v>349</v>
       </c>
@@ -29293,7 +29299,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="745" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A745" s="4" t="s">
         <v>270</v>
       </c>
@@ -29316,7 +29322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A746" s="4" t="s">
         <v>344</v>
       </c>
@@ -29348,7 +29354,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="747" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A747" s="4" t="s">
         <v>372</v>
       </c>
@@ -29380,7 +29386,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="748" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A748" s="4" t="s">
         <v>516</v>
       </c>
@@ -29421,7 +29427,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="749" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A749" s="4" t="s">
         <v>512</v>
       </c>
@@ -29465,7 +29471,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="750" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A750" s="4" t="s">
         <v>526</v>
       </c>
@@ -29509,7 +29515,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="751" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A751" s="4" t="s">
         <v>475</v>
       </c>
@@ -29541,7 +29547,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="752" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A752" s="4" t="s">
         <v>835</v>
       </c>
@@ -29576,7 +29582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="753" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A753" s="4" t="s">
         <v>837</v>
       </c>
@@ -29611,7 +29617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A754" s="8" t="s">
         <v>839</v>
       </c>
@@ -29656,7 +29662,7 @@
       <c r="S754" s="10"/>
       <c r="T754" s="10"/>
     </row>
-    <row r="755" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A755" s="4" t="s">
         <v>858</v>
       </c>
@@ -29691,7 +29697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A756" s="4" t="s">
         <v>859</v>
       </c>
@@ -29726,7 +29732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A757" s="4" t="s">
         <v>824</v>
       </c>
@@ -29761,7 +29767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A758" s="4" t="s">
         <v>844</v>
       </c>
@@ -29796,7 +29802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A759" s="4" t="s">
         <v>846</v>
       </c>
@@ -29831,7 +29837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A760" s="4" t="s">
         <v>848</v>
       </c>
@@ -29866,7 +29872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A761" s="4" t="s">
         <v>850</v>
       </c>
@@ -29907,7 +29913,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="762" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A762" s="4" t="s">
         <v>851</v>
       </c>
@@ -29942,7 +29948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="763" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A763" s="4" t="s">
         <v>599</v>
       </c>
@@ -29986,7 +29992,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="764" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A764" s="4" t="s">
         <v>347</v>
       </c>
@@ -30012,7 +30018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A765" s="4" t="s">
         <v>441</v>
       </c>
@@ -30043,7 +30049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A766" s="4" t="s">
         <v>440</v>
       </c>
@@ -30072,7 +30078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="767" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A767" s="4" t="s">
         <v>440</v>
       </c>
@@ -30104,7 +30110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A768" s="4" t="s">
         <v>451</v>
       </c>
@@ -30133,7 +30139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A769" s="4" t="s">
         <v>453</v>
       </c>
@@ -30165,7 +30171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A770" s="4" t="s">
         <v>547</v>
       </c>
@@ -30194,7 +30200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A771" s="4" t="s">
         <v>267</v>
       </c>
@@ -30226,7 +30232,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="772" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A772" s="4" t="s">
         <v>691</v>
       </c>
@@ -30258,7 +30264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="773" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A773" s="4" t="s">
         <v>533</v>
       </c>
@@ -30287,7 +30293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="774" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A774" s="4" t="s">
         <v>533</v>
       </c>
@@ -30316,7 +30322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="775" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A775" s="4" t="s">
         <v>338</v>
       </c>
@@ -30345,7 +30351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="776" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A776" s="4" t="s">
         <v>493</v>
       </c>
@@ -30374,7 +30380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="777" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A777" s="4" t="s">
         <v>339</v>
       </c>
@@ -30403,7 +30409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="778" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A778" s="4" t="s">
         <v>339</v>
       </c>
@@ -30432,7 +30438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="779" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A779" s="4" t="s">
         <v>339</v>
       </c>
@@ -30464,7 +30470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="780" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A780" s="4" t="s">
         <v>26</v>
       </c>
@@ -30496,7 +30502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="781" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A781" s="4" t="s">
         <v>324</v>
       </c>
@@ -30525,7 +30531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="782" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A782" s="4" t="s">
         <v>39</v>
       </c>
@@ -30554,7 +30560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="783" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A783" s="4" t="s">
         <v>219</v>
       </c>
@@ -30586,7 +30592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="784" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A784" s="4" t="s">
         <v>40</v>
       </c>
@@ -30615,7 +30621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="785" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A785" s="4" t="s">
         <v>228</v>
       </c>
@@ -30641,7 +30647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="786" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A786" s="4" t="s">
         <v>534</v>
       </c>
@@ -30670,7 +30676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="787" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A787" s="4" t="s">
         <v>12</v>
       </c>
@@ -30696,7 +30702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="788" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A788" s="4" t="s">
         <v>239</v>
       </c>
@@ -30722,7 +30728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="789" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A789" s="4" t="s">
         <v>238</v>
       </c>
@@ -30748,7 +30754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="790" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A790" s="4" t="s">
         <v>544</v>
       </c>
@@ -30777,7 +30783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="791" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A791" s="4" t="s">
         <v>546</v>
       </c>
@@ -30806,7 +30812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="792" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A792" s="4" t="s">
         <v>266</v>
       </c>
@@ -30835,7 +30841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="793" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A793" s="4" t="s">
         <v>690</v>
       </c>
@@ -30864,7 +30870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="794" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A794" s="4" t="s">
         <v>573</v>
       </c>
@@ -30893,7 +30899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="795" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A795" s="4" t="s">
         <v>540</v>
       </c>
@@ -30922,7 +30928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="796" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A796" s="4" t="s">
         <v>541</v>
       </c>
@@ -30951,7 +30957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="797" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A797" s="4" t="s">
         <v>371</v>
       </c>
@@ -30980,7 +30986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="798" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A798" s="4" t="s">
         <v>337</v>
       </c>
@@ -31009,7 +31015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="799" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A799" s="4" t="s">
         <v>492</v>
       </c>
@@ -31038,7 +31044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="800" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A800" s="4" t="s">
         <v>593</v>
       </c>
@@ -31067,7 +31073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="801" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A801" s="4" t="s">
         <v>603</v>
       </c>
@@ -31096,7 +31102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="802" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A802" s="4" t="s">
         <v>237</v>
       </c>
@@ -31122,7 +31128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="803" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A803" s="4" t="s">
         <v>236</v>
       </c>
@@ -31148,7 +31154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="804" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A804" s="4" t="s">
         <v>235</v>
       </c>
@@ -31174,7 +31180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="805" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A805" s="4" t="s">
         <v>234</v>
       </c>
@@ -31200,7 +31206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="806" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A806" s="4" t="s">
         <v>233</v>
       </c>
@@ -31226,7 +31232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="807" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A807" s="4" t="s">
         <v>245</v>
       </c>
@@ -31252,7 +31258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="808" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A808" s="4" t="s">
         <v>264</v>
       </c>
@@ -31278,7 +31284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="809" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A809" s="4" t="s">
         <v>232</v>
       </c>
@@ -31304,7 +31310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="810" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A810" s="4" t="s">
         <v>241</v>
       </c>
@@ -31330,7 +31336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="811" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A811" s="4" t="s">
         <v>229</v>
       </c>
@@ -31356,7 +31362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="812" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A812" s="4" t="s">
         <v>227</v>
       </c>
@@ -31384,7 +31390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="813" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A813" s="4" t="s">
         <v>226</v>
       </c>
@@ -31410,7 +31416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="814" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A814" s="4" t="s">
         <v>1039</v>
       </c>
@@ -31439,7 +31445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="815" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A815" s="4" t="s">
         <v>532</v>
       </c>
@@ -31468,7 +31474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="816" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A816" s="4" t="s">
         <v>225</v>
       </c>
@@ -31494,7 +31500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="817" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A817" s="4" t="s">
         <v>224</v>
       </c>
@@ -31520,7 +31526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="818" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A818" s="4" t="s">
         <v>360</v>
       </c>
@@ -31549,7 +31555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="819" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A819" s="4" t="s">
         <v>223</v>
       </c>
@@ -31575,7 +31581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="820" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A820" s="4" t="s">
         <v>222</v>
       </c>
@@ -31601,7 +31607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="821" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A821" s="4" t="s">
         <v>221</v>
       </c>
@@ -31627,7 +31633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="822" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A822" s="4" t="s">
         <v>231</v>
       </c>
@@ -31653,7 +31659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="823" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A823" s="4" t="s">
         <v>230</v>
       </c>
@@ -31679,7 +31685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="824" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A824" s="4" t="s">
         <v>220</v>
       </c>
@@ -31705,7 +31711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="825" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A825" s="4" t="s">
         <v>252</v>
       </c>
@@ -31731,7 +31737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="826" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A826" s="4" t="s">
         <v>247</v>
       </c>
@@ -31757,7 +31763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="827" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A827" s="4" t="s">
         <v>182</v>
       </c>
@@ -31783,7 +31789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="828" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A828" s="4" t="s">
         <v>268</v>
       </c>
@@ -31809,7 +31815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="829" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A829" s="4" t="s">
         <v>333</v>
       </c>
@@ -31838,7 +31844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="830" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A830" s="4" t="s">
         <v>332</v>
       </c>
@@ -31867,7 +31873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="831" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A831" s="4" t="s">
         <v>331</v>
       </c>
@@ -31893,7 +31899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="832" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A832" s="4" t="s">
         <v>591</v>
       </c>

--- a/data/combined data/combined data - 1 cleaning/cleaning step 2 - career/2.3 joborglink/joborglink_6_1_inorgtree_both_tocode_1_jeongsu_x.xlsx
+++ b/data/combined data/combined data - 1 cleaning/cleaning step 2 - career/2.3 joborglink/joborglink_6_1_inorgtree_both_tocode_1_jeongsu_x.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seoul\Dropbox\00 technical\github\nkelites\data\combined data\combined data - 1 cleaning\cleaning step 2 - career\2.3 joborglink\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65ED1485-76F0-493A-BB01-83FE6ABEF943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30514F5-6903-4319-9D27-DB78630BCEA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6486" uniqueCount="1118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6494" uniqueCount="1117">
   <si>
     <t>OrgString</t>
   </si>
@@ -3386,9 +3386,6 @@
   </si>
   <si>
     <t>대외경제석_민족경제협력위원회_민족경제협력연합회</t>
-  </si>
-  <si>
-    <t>육해원성</t>
   </si>
   <si>
     <t>경공업부</t>
@@ -3857,10 +3854,10 @@
   <dimension ref="A1:T832"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F116" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K14" sqref="K14"/>
+      <selection pane="bottomRight" activeCell="F124" sqref="F124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4630,7 +4627,7 @@
         <v>19</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>1115</v>
+        <v>130</v>
       </c>
       <c r="N19" s="19" t="s">
         <v>1099</v>
@@ -5257,7 +5254,7 @@
         <v>19</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>707</v>
+        <v>125</v>
       </c>
       <c r="N34" s="19" t="s">
         <v>1099</v>
@@ -5301,7 +5298,7 @@
         <v>19</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>707</v>
+        <v>125</v>
       </c>
       <c r="N35" s="19" t="s">
         <v>1099</v>
@@ -5550,7 +5547,7 @@
         <v>19</v>
       </c>
       <c r="M41" s="6" t="s">
-        <v>134</v>
+        <v>758</v>
       </c>
       <c r="N41" s="19" t="s">
         <v>1099</v>
@@ -7229,7 +7226,7 @@
         <v>8</v>
       </c>
       <c r="P81" s="17" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.35">
@@ -7264,10 +7261,10 @@
         <v>1053</v>
       </c>
       <c r="L82" s="6" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="M82" s="6" t="s">
-        <v>9</v>
+        <v>1068</v>
       </c>
       <c r="N82" s="18" t="s">
         <v>1098</v>
@@ -9222,6 +9219,12 @@
       <c r="K124" s="6" t="s">
         <v>1070</v>
       </c>
+      <c r="L124" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M124" s="14" t="s">
+        <v>1071</v>
+      </c>
       <c r="N124" s="18" t="s">
         <v>1098</v>
       </c>
@@ -9530,6 +9533,12 @@
       <c r="K131" s="6" t="s">
         <v>1073</v>
       </c>
+      <c r="L131" s="6" t="s">
+        <v>1043</v>
+      </c>
+      <c r="M131" s="6" t="s">
+        <v>1043</v>
+      </c>
       <c r="N131" s="18" t="s">
         <v>1098</v>
       </c>
@@ -10397,6 +10406,12 @@
       <c r="K152" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="L152" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M152" s="14" t="s">
+        <v>9</v>
+      </c>
       <c r="N152" s="18" t="s">
         <v>1098</v>
       </c>
@@ -10523,6 +10538,12 @@
       <c r="K155" s="6" t="s">
         <v>1070</v>
       </c>
+      <c r="L155" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M155" s="6" t="s">
+        <v>1071</v>
+      </c>
       <c r="N155" s="18" t="s">
         <v>1098</v>
       </c>
@@ -11319,10 +11340,10 @@
         <v>1073</v>
       </c>
       <c r="L173" s="6" t="s">
-        <v>9</v>
+        <v>1043</v>
       </c>
       <c r="M173" s="6" t="s">
-        <v>9</v>
+        <v>1043</v>
       </c>
       <c r="N173" s="18" t="s">
         <v>1098</v>
@@ -11795,7 +11816,7 @@
         <v>1102</v>
       </c>
       <c r="P183" s="17" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="184" spans="1:17" x14ac:dyDescent="0.35">

--- a/data/combined data/combined data - 1 cleaning/cleaning step 2 - career/2.3 joborglink/joborglink_6_1_inorgtree_both_tocode_1_jeongsu_x.xlsx
+++ b/data/combined data/combined data - 1 cleaning/cleaning step 2 - career/2.3 joborglink/joborglink_6_1_inorgtree_both_tocode_1_jeongsu_x.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seoul\Dropbox\00 technical\github\nkelites\data\combined data\combined data - 1 cleaning\cleaning step 2 - career\2.3 joborglink\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30514F5-6903-4319-9D27-DB78630BCEA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CAF6181-C8D7-48AE-91B6-745CD1D1207A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6494" uniqueCount="1117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6614" uniqueCount="1117">
   <si>
     <t>OrgString</t>
   </si>
@@ -3172,9 +3172,6 @@
     <t>작전총국_제3처_제1군단_제13사단</t>
   </si>
   <si>
-    <t>NAN</t>
-  </si>
-  <si>
     <t>orgname 수정 : 작전총국_제3처_1군단</t>
   </si>
   <si>
@@ -3334,9 +3331,6 @@
     <t>ChangeOrgTree</t>
   </si>
   <si>
-    <t>국방성_공병국</t>
-  </si>
-  <si>
     <t>Change</t>
   </si>
   <si>
@@ -3392,6 +3386,12 @@
   </si>
   <si>
     <t>1군단_1사단</t>
+  </si>
+  <si>
+    <t>국방성_참모부_공병국</t>
+  </si>
+  <si>
+    <t>Deprecated</t>
   </si>
 </sst>
 </file>
@@ -3497,7 +3497,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3539,9 +3539,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3854,10 +3851,10 @@
   <dimension ref="A1:T832"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F116" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F403" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F124" sqref="F124"/>
+      <selection pane="bottomRight" activeCell="J472" sqref="J472"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3867,8 +3864,12 @@
     <col min="3" max="3" width="8.90625" style="11" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="9.1796875" style="4" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="9.54296875" style="4" hidden="1" customWidth="1"/>
-    <col min="6" max="9" width="20.81640625" style="14" customWidth="1"/>
-    <col min="10" max="13" width="24.453125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="20.81640625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="36.36328125" style="14" customWidth="1"/>
+    <col min="8" max="9" width="20.81640625" style="14" customWidth="1"/>
+    <col min="10" max="10" width="24.453125" style="6" customWidth="1"/>
+    <col min="11" max="11" width="35" style="6" customWidth="1"/>
+    <col min="12" max="13" width="24.453125" style="6" customWidth="1"/>
     <col min="14" max="14" width="18" style="18" customWidth="1"/>
     <col min="15" max="16" width="18.26953125" style="20" customWidth="1"/>
     <col min="17" max="17" width="8.36328125" style="2" customWidth="1"/>
@@ -3883,7 +3884,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -3898,31 +3899,31 @@
         <v>5</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="I1" s="13" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="5" t="s">
+        <v>1089</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>1090</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>1091</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>1092</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="18" t="s">
+        <v>1095</v>
+      </c>
+      <c r="O1" s="16" t="s">
         <v>1093</v>
       </c>
-      <c r="N1" s="18" t="s">
-        <v>1096</v>
-      </c>
-      <c r="O1" s="16" t="s">
+      <c r="P1" s="16" t="s">
         <v>1094</v>
-      </c>
-      <c r="P1" s="16" t="s">
-        <v>1095</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>7</v>
@@ -3957,16 +3958,16 @@
         <v>103</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>62</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="N2" s="18" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
@@ -4001,16 +4002,16 @@
         <v>103</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>62</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="N3" s="18" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
@@ -4042,16 +4043,16 @@
         <v>103</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>62</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="N4" s="18" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
@@ -4086,16 +4087,16 @@
         <v>103</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>62</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="N5" s="18" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
@@ -4124,7 +4125,7 @@
         <v>104</v>
       </c>
       <c r="N6" s="18" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
@@ -4153,7 +4154,7 @@
         <v>104</v>
       </c>
       <c r="N7" s="18" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
@@ -4182,7 +4183,7 @@
         <v>301</v>
       </c>
       <c r="N8" s="18" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
@@ -4214,7 +4215,7 @@
         <v>301</v>
       </c>
       <c r="N9" s="18" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
@@ -4249,7 +4250,7 @@
         <v>19</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="L10" s="6" t="s">
         <v>9</v>
@@ -4258,7 +4259,7 @@
         <v>9</v>
       </c>
       <c r="N10" s="18" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
@@ -4284,13 +4285,13 @@
         <v>19</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>19</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="L11" s="6" t="s">
         <v>9</v>
@@ -4299,7 +4300,7 @@
         <v>9</v>
       </c>
       <c r="N11" s="18" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
@@ -4331,7 +4332,7 @@
         <v>136</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K12" s="6" t="s">
         <v>831</v>
@@ -4343,7 +4344,7 @@
         <v>136</v>
       </c>
       <c r="N12" s="19" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
@@ -4372,13 +4373,13 @@
         <v>301</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K13" s="6" t="s">
         <v>305</v>
       </c>
       <c r="N13" s="19" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
@@ -4407,7 +4408,7 @@
         <v>9</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K14" s="6" t="s">
         <v>150</v>
@@ -4419,7 +4420,7 @@
         <v>150</v>
       </c>
       <c r="N14" s="19" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
@@ -4448,7 +4449,7 @@
         <v>9</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K15" s="6" t="s">
         <v>150</v>
@@ -4460,7 +4461,7 @@
         <v>150</v>
       </c>
       <c r="N15" s="19" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
@@ -4492,7 +4493,7 @@
         <v>9</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K16" s="6" t="s">
         <v>150</v>
@@ -4504,7 +4505,7 @@
         <v>150</v>
       </c>
       <c r="N16" s="19" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
@@ -4533,7 +4534,7 @@
         <v>130</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K17" s="6" t="s">
         <v>151</v>
@@ -4545,7 +4546,7 @@
         <v>130</v>
       </c>
       <c r="N17" s="19" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
@@ -4577,7 +4578,7 @@
         <v>130</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K18" s="6" t="s">
         <v>151</v>
@@ -4589,7 +4590,7 @@
         <v>130</v>
       </c>
       <c r="N18" s="19" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
@@ -4618,7 +4619,7 @@
         <v>130</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K19" s="6" t="s">
         <v>151</v>
@@ -4630,7 +4631,7 @@
         <v>130</v>
       </c>
       <c r="N19" s="19" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
@@ -4659,7 +4660,7 @@
         <v>9</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K20" s="6" t="s">
         <v>605</v>
@@ -4671,7 +4672,7 @@
         <v>605</v>
       </c>
       <c r="N20" s="19" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
@@ -4700,7 +4701,7 @@
         <v>9</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K21" s="6" t="s">
         <v>605</v>
@@ -4712,7 +4713,7 @@
         <v>605</v>
       </c>
       <c r="N21" s="19" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
@@ -4741,7 +4742,7 @@
         <v>9</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K22" s="6" t="s">
         <v>158</v>
@@ -4753,7 +4754,7 @@
         <v>158</v>
       </c>
       <c r="N22" s="19" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
@@ -4782,7 +4783,7 @@
         <v>9</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K23" s="6" t="s">
         <v>158</v>
@@ -4794,7 +4795,7 @@
         <v>158</v>
       </c>
       <c r="N23" s="19" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
@@ -4826,7 +4827,7 @@
         <v>9</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K24" s="6" t="s">
         <v>158</v>
@@ -4838,7 +4839,7 @@
         <v>158</v>
       </c>
       <c r="N24" s="19" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
@@ -4870,7 +4871,7 @@
         <v>9</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K25" s="6" t="s">
         <v>159</v>
@@ -4882,7 +4883,7 @@
         <v>159</v>
       </c>
       <c r="N25" s="19" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
@@ -4911,7 +4912,7 @@
         <v>9</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K26" s="6" t="s">
         <v>159</v>
@@ -4923,7 +4924,7 @@
         <v>159</v>
       </c>
       <c r="N26" s="19" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
@@ -4952,7 +4953,7 @@
         <v>154</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K27" s="6" t="s">
         <v>153</v>
@@ -4964,7 +4965,7 @@
         <v>154</v>
       </c>
       <c r="N27" s="19" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
@@ -4993,7 +4994,7 @@
         <v>154</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K28" s="6" t="s">
         <v>153</v>
@@ -5005,7 +5006,7 @@
         <v>154</v>
       </c>
       <c r="N28" s="19" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
@@ -5034,7 +5035,7 @@
         <v>863</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K29" s="6" t="s">
         <v>940</v>
@@ -5046,7 +5047,7 @@
         <v>863</v>
       </c>
       <c r="N29" s="19" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
@@ -5078,7 +5079,7 @@
         <v>863</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K30" s="6" t="s">
         <v>940</v>
@@ -5090,7 +5091,7 @@
         <v>863</v>
       </c>
       <c r="N30" s="19" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
@@ -5119,7 +5120,7 @@
         <v>863</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K31" s="6" t="s">
         <v>940</v>
@@ -5131,7 +5132,7 @@
         <v>863</v>
       </c>
       <c r="N31" s="19" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
@@ -5160,7 +5161,7 @@
         <v>156</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K32" s="6" t="s">
         <v>155</v>
@@ -5172,7 +5173,7 @@
         <v>156</v>
       </c>
       <c r="N32" s="19" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.35">
@@ -5204,7 +5205,7 @@
         <v>156</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K33" s="6" t="s">
         <v>155</v>
@@ -5216,7 +5217,7 @@
         <v>156</v>
       </c>
       <c r="N33" s="19" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.35">
@@ -5245,7 +5246,7 @@
         <v>707</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K34" s="6" t="s">
         <v>872</v>
@@ -5257,7 +5258,7 @@
         <v>125</v>
       </c>
       <c r="N34" s="19" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.35">
@@ -5289,7 +5290,7 @@
         <v>707</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K35" s="6" t="s">
         <v>872</v>
@@ -5301,7 +5302,7 @@
         <v>125</v>
       </c>
       <c r="N35" s="19" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.35">
@@ -5330,7 +5331,7 @@
         <v>125</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K36" s="6" t="s">
         <v>872</v>
@@ -5342,7 +5343,7 @@
         <v>125</v>
       </c>
       <c r="N36" s="19" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.35">
@@ -5371,7 +5372,7 @@
         <v>654</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K37" s="6" t="s">
         <v>90</v>
@@ -5383,7 +5384,7 @@
         <v>654</v>
       </c>
       <c r="N37" s="19" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.35">
@@ -5424,7 +5425,7 @@
         <v>106</v>
       </c>
       <c r="N38" s="19" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.35">
@@ -5468,7 +5469,7 @@
         <v>106</v>
       </c>
       <c r="N39" s="19" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.35">
@@ -5497,7 +5498,7 @@
         <v>890</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K40" s="6" t="s">
         <v>889</v>
@@ -5509,7 +5510,7 @@
         <v>890</v>
       </c>
       <c r="N40" s="19" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.35">
@@ -5538,7 +5539,7 @@
         <v>134</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K41" s="6" t="s">
         <v>1006</v>
@@ -5550,7 +5551,7 @@
         <v>758</v>
       </c>
       <c r="N41" s="19" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.35">
@@ -5579,7 +5580,7 @@
         <v>758</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K42" s="6" t="s">
         <v>1006</v>
@@ -5591,7 +5592,7 @@
         <v>758</v>
       </c>
       <c r="N42" s="19" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.35">
@@ -5623,19 +5624,19 @@
         <v>693</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K43" s="6" t="s">
         <v>1019</v>
       </c>
       <c r="L43" s="6" t="s">
-        <v>1043</v>
+        <v>1116</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>1043</v>
+        <v>1116</v>
       </c>
       <c r="N43" s="19" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.35">
@@ -5664,19 +5665,19 @@
         <v>693</v>
       </c>
       <c r="J44" s="6" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K44" s="6" t="s">
         <v>1019</v>
       </c>
       <c r="L44" s="6" t="s">
-        <v>1043</v>
+        <v>1116</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>1043</v>
+        <v>1116</v>
       </c>
       <c r="N44" s="19" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.35">
@@ -5705,7 +5706,7 @@
         <v>1022</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K45" s="6" t="s">
         <v>1027</v>
@@ -5717,7 +5718,7 @@
         <v>1022</v>
       </c>
       <c r="N45" s="19" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.35">
@@ -5746,7 +5747,7 @@
         <v>136</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K46" s="6" t="s">
         <v>831</v>
@@ -5758,7 +5759,7 @@
         <v>136</v>
       </c>
       <c r="N46" s="19" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.35">
@@ -5787,7 +5788,7 @@
         <v>136</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K47" s="6" t="s">
         <v>831</v>
@@ -5799,7 +5800,7 @@
         <v>136</v>
       </c>
       <c r="N47" s="19" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.35">
@@ -5828,7 +5829,7 @@
         <v>130</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K48" s="6" t="s">
         <v>982</v>
@@ -5840,7 +5841,7 @@
         <v>130</v>
       </c>
       <c r="N48" s="19" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.35">
@@ -5874,8 +5875,14 @@
       <c r="K49" s="6" t="s">
         <v>1040</v>
       </c>
+      <c r="L49" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M49" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="N49" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O49" s="17" t="s">
         <v>8</v>
@@ -5910,7 +5917,7 @@
         <v>25</v>
       </c>
       <c r="K50" s="6" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="L50" s="6" t="s">
         <v>9</v>
@@ -5919,7 +5926,7 @@
         <v>9</v>
       </c>
       <c r="N50" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O50" s="20" t="s">
         <v>8</v>
@@ -5957,7 +5964,7 @@
         <v>25</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="L51" s="6" t="s">
         <v>9</v>
@@ -5966,7 +5973,7 @@
         <v>9</v>
       </c>
       <c r="N51" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O51" s="20" t="s">
         <v>8</v>
@@ -6007,7 +6014,7 @@
         <v>25</v>
       </c>
       <c r="K52" s="6" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="L52" s="6" t="s">
         <v>9</v>
@@ -6016,7 +6023,7 @@
         <v>9</v>
       </c>
       <c r="N52" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O52" s="20" t="s">
         <v>8</v>
@@ -6054,7 +6061,7 @@
         <v>25</v>
       </c>
       <c r="K53" s="6" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="L53" s="6" t="s">
         <v>9</v>
@@ -6063,7 +6070,7 @@
         <v>9</v>
       </c>
       <c r="N53" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O53" s="20" t="s">
         <v>8</v>
@@ -6104,7 +6111,7 @@
         <v>25</v>
       </c>
       <c r="K54" s="6" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="L54" s="6" t="s">
         <v>9</v>
@@ -6113,7 +6120,7 @@
         <v>9</v>
       </c>
       <c r="N54" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O54" s="20" t="s">
         <v>8</v>
@@ -6154,7 +6161,7 @@
         <v>62</v>
       </c>
       <c r="K55" s="6" t="s">
-        <v>1097</v>
+        <v>1115</v>
       </c>
       <c r="L55" s="6" t="s">
         <v>9</v>
@@ -6162,11 +6169,8 @@
       <c r="M55" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N55" s="18" t="s">
-        <v>1098</v>
-      </c>
-      <c r="P55" s="20" t="s">
-        <v>1097</v>
+      <c r="N55" s="18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.35">
@@ -6201,7 +6205,7 @@
         <v>62</v>
       </c>
       <c r="K56" s="6" t="s">
-        <v>1097</v>
+        <v>1115</v>
       </c>
       <c r="L56" s="6" t="s">
         <v>9</v>
@@ -6209,11 +6213,8 @@
       <c r="M56" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N56" s="18" t="s">
-        <v>1098</v>
-      </c>
-      <c r="P56" s="20" t="s">
-        <v>1097</v>
+      <c r="N56" s="18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.35">
@@ -6248,7 +6249,7 @@
         <v>25</v>
       </c>
       <c r="K57" s="6" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="L57" s="6" t="s">
         <v>9</v>
@@ -6257,7 +6258,7 @@
         <v>9</v>
       </c>
       <c r="N57" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O57" s="20" t="s">
         <v>103</v>
@@ -6298,7 +6299,7 @@
         <v>25</v>
       </c>
       <c r="K58" s="6" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="L58" s="6" t="s">
         <v>9</v>
@@ -6307,7 +6308,7 @@
         <v>9</v>
       </c>
       <c r="N58" s="18" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="O58" s="17" t="s">
         <v>8</v>
@@ -6351,10 +6352,10 @@
         <v>9</v>
       </c>
       <c r="N59" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O59" s="17" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.35">
@@ -6395,10 +6396,10 @@
         <v>9</v>
       </c>
       <c r="N60" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O60" s="17" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.35">
@@ -6427,7 +6428,7 @@
         <v>25</v>
       </c>
       <c r="K61" s="6" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="L61" s="6" t="s">
         <v>9</v>
@@ -6436,7 +6437,7 @@
         <v>9</v>
       </c>
       <c r="N61" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O61" s="17" t="s">
         <v>8</v>
@@ -6474,7 +6475,7 @@
         <v>25</v>
       </c>
       <c r="K62" s="6" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="L62" s="6" t="s">
         <v>9</v>
@@ -6483,7 +6484,7 @@
         <v>9</v>
       </c>
       <c r="N62" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O62" s="17" t="s">
         <v>8</v>
@@ -6524,7 +6525,7 @@
         <v>19</v>
       </c>
       <c r="K63" s="6" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="L63" s="6" t="s">
         <v>9</v>
@@ -6533,13 +6534,13 @@
         <v>9</v>
       </c>
       <c r="N63" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O63" s="20" t="s">
         <v>19</v>
       </c>
       <c r="P63" s="20" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.35">
@@ -6574,7 +6575,7 @@
         <v>19</v>
       </c>
       <c r="K64" s="6" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="L64" s="6" t="s">
         <v>9</v>
@@ -6583,13 +6584,13 @@
         <v>9</v>
       </c>
       <c r="N64" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O64" s="20" t="s">
         <v>19</v>
       </c>
       <c r="P64" s="20" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.35">
@@ -6618,7 +6619,7 @@
         <v>9</v>
       </c>
       <c r="N65" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="P65" s="20" t="s">
         <v>152</v>
@@ -6650,7 +6651,7 @@
         <v>9</v>
       </c>
       <c r="N66" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="P66" s="20" t="s">
         <v>152</v>
@@ -6682,7 +6683,7 @@
         <v>9</v>
       </c>
       <c r="N67" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="P67" s="20" t="s">
         <v>152</v>
@@ -6714,13 +6715,13 @@
         <v>9</v>
       </c>
       <c r="N68" s="18" t="s">
-        <v>1098</v>
-      </c>
-      <c r="O68" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="P68" s="23" t="s">
-        <v>1105</v>
+        <v>1096</v>
+      </c>
+      <c r="O68" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="P68" s="22" t="s">
+        <v>1103</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.35">
@@ -6749,13 +6750,13 @@
         <v>9</v>
       </c>
       <c r="N69" s="18" t="s">
-        <v>1098</v>
-      </c>
-      <c r="O69" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="P69" s="23" t="s">
-        <v>1105</v>
+        <v>1096</v>
+      </c>
+      <c r="O69" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="P69" s="22" t="s">
+        <v>1103</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.35">
@@ -6784,7 +6785,7 @@
         <v>156</v>
       </c>
       <c r="N70" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="P70" s="20" t="s">
         <v>155</v>
@@ -6828,12 +6829,12 @@
         <v>9</v>
       </c>
       <c r="N71" s="18" t="s">
-        <v>1098</v>
-      </c>
-      <c r="O71" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="P71" s="23" t="s">
+        <v>1096</v>
+      </c>
+      <c r="O71" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="P71" s="22" t="s">
         <v>994</v>
       </c>
     </row>
@@ -6875,7 +6876,7 @@
         <v>9</v>
       </c>
       <c r="N72" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O72" s="17" t="s">
         <v>19</v>
@@ -6910,13 +6911,13 @@
         <v>9</v>
       </c>
       <c r="N73" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O73" s="17" t="s">
         <v>19</v>
       </c>
       <c r="P73" s="17" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="Q73" s="2" t="s">
         <v>20</v>
@@ -6948,13 +6949,13 @@
         <v>9</v>
       </c>
       <c r="N74" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O74" s="17" t="s">
         <v>19</v>
       </c>
       <c r="P74" s="17" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="Q74" s="2" t="s">
         <v>20</v>
@@ -6986,13 +6987,13 @@
         <v>9</v>
       </c>
       <c r="N75" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O75" s="17" t="s">
         <v>19</v>
       </c>
       <c r="P75" s="17" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.35">
@@ -7021,13 +7022,13 @@
         <v>9</v>
       </c>
       <c r="N76" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O76" s="17" t="s">
         <v>19</v>
       </c>
       <c r="P76" s="17" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="Q76" s="2" t="s">
         <v>20</v>
@@ -7059,13 +7060,13 @@
         <v>9</v>
       </c>
       <c r="N77" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O77" s="17" t="s">
         <v>19</v>
       </c>
       <c r="P77" s="17" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="Q77" s="2" t="s">
         <v>20</v>
@@ -7097,13 +7098,13 @@
         <v>9</v>
       </c>
       <c r="N78" s="18" t="s">
-        <v>1098</v>
-      </c>
-      <c r="O78" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="P78" s="23" t="s">
-        <v>1111</v>
+        <v>1096</v>
+      </c>
+      <c r="O78" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="P78" s="22" t="s">
+        <v>1109</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.35">
@@ -7132,13 +7133,13 @@
         <v>9</v>
       </c>
       <c r="N79" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O79" s="17" t="s">
         <v>19</v>
       </c>
       <c r="P79" s="17" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.35">
@@ -7172,8 +7173,14 @@
       <c r="K80" s="6" t="s">
         <v>1040</v>
       </c>
+      <c r="L80" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M80" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="N80" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O80" s="17" t="s">
         <v>8</v>
@@ -7211,7 +7218,7 @@
         <v>25</v>
       </c>
       <c r="K81" s="6" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="L81" s="6" t="s">
         <v>9</v>
@@ -7220,13 +7227,13 @@
         <v>9</v>
       </c>
       <c r="N81" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O81" s="17" t="s">
         <v>8</v>
       </c>
       <c r="P81" s="17" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.35">
@@ -7252,22 +7259,22 @@
         <v>25</v>
       </c>
       <c r="I82" s="14" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="J82" s="6" t="s">
         <v>25</v>
       </c>
       <c r="K82" s="6" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="L82" s="6" t="s">
         <v>25</v>
       </c>
       <c r="M82" s="6" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="N82" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O82" s="17" t="s">
         <v>25</v>
@@ -7308,7 +7315,7 @@
         <v>25</v>
       </c>
       <c r="K83" s="6" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="L83" s="6" t="s">
         <v>9</v>
@@ -7317,7 +7324,7 @@
         <v>9</v>
       </c>
       <c r="N83" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O83" s="17" t="s">
         <v>25</v>
@@ -7358,7 +7365,7 @@
         <v>25</v>
       </c>
       <c r="K84" s="6" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="L84" s="6" t="s">
         <v>9</v>
@@ -7367,7 +7374,7 @@
         <v>9</v>
       </c>
       <c r="N84" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O84" s="17" t="s">
         <v>25</v>
@@ -7405,7 +7412,7 @@
         <v>25</v>
       </c>
       <c r="K85" s="6" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="L85" s="6" t="s">
         <v>9</v>
@@ -7414,7 +7421,7 @@
         <v>9</v>
       </c>
       <c r="N85" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O85" s="17" t="s">
         <v>25</v>
@@ -7454,8 +7461,14 @@
       <c r="K86" s="6" t="s">
         <v>1040</v>
       </c>
+      <c r="L86" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M86" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="N86" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O86" s="17" t="s">
         <v>25</v>
@@ -7493,7 +7506,7 @@
         <v>25</v>
       </c>
       <c r="K87" s="6" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="L87" s="6" t="s">
         <v>9</v>
@@ -7502,12 +7515,12 @@
         <v>9</v>
       </c>
       <c r="N87" s="18" t="s">
-        <v>1098</v>
-      </c>
-      <c r="O87" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="P87" s="23" t="s">
+        <v>1096</v>
+      </c>
+      <c r="O87" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="P87" s="22" t="s">
         <v>865</v>
       </c>
     </row>
@@ -7549,7 +7562,7 @@
         <v>9</v>
       </c>
       <c r="N88" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O88" s="17" t="s">
         <v>25</v>
@@ -7596,7 +7609,7 @@
         <v>9</v>
       </c>
       <c r="N89" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O89" s="17" t="s">
         <v>25</v>
@@ -7643,7 +7656,7 @@
         <v>9</v>
       </c>
       <c r="N90" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O90" s="17" t="s">
         <v>25</v>
@@ -7681,7 +7694,7 @@
         <v>25</v>
       </c>
       <c r="K91" s="6" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="L91" s="6" t="s">
         <v>9</v>
@@ -7690,7 +7703,7 @@
         <v>9</v>
       </c>
       <c r="N91" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O91" s="17" t="s">
         <v>25</v>
@@ -7728,7 +7741,7 @@
         <v>25</v>
       </c>
       <c r="K92" s="6" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="L92" s="6" t="s">
         <v>9</v>
@@ -7737,7 +7750,7 @@
         <v>9</v>
       </c>
       <c r="N92" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O92" s="17" t="s">
         <v>25</v>
@@ -7775,7 +7788,7 @@
         <v>25</v>
       </c>
       <c r="K93" s="6" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="L93" s="6" t="s">
         <v>9</v>
@@ -7784,7 +7797,7 @@
         <v>9</v>
       </c>
       <c r="N93" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O93" s="17" t="s">
         <v>25</v>
@@ -7822,7 +7835,7 @@
         <v>25</v>
       </c>
       <c r="K94" s="6" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="L94" s="6" t="s">
         <v>9</v>
@@ -7831,7 +7844,7 @@
         <v>9</v>
       </c>
       <c r="N94" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O94" s="17" t="s">
         <v>25</v>
@@ -7869,7 +7882,7 @@
         <v>25</v>
       </c>
       <c r="K95" s="6" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="L95" s="6" t="s">
         <v>9</v>
@@ -7878,7 +7891,7 @@
         <v>9</v>
       </c>
       <c r="N95" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O95" s="17" t="s">
         <v>25</v>
@@ -7916,7 +7929,7 @@
         <v>25</v>
       </c>
       <c r="K96" s="6" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="L96" s="6" t="s">
         <v>9</v>
@@ -7925,7 +7938,7 @@
         <v>9</v>
       </c>
       <c r="N96" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O96" s="17" t="s">
         <v>25</v>
@@ -7966,7 +7979,7 @@
         <v>25</v>
       </c>
       <c r="K97" s="6" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="L97" s="6" t="s">
         <v>9</v>
@@ -7975,7 +7988,7 @@
         <v>9</v>
       </c>
       <c r="N97" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O97" s="17" t="s">
         <v>25</v>
@@ -8016,7 +8029,7 @@
         <v>25</v>
       </c>
       <c r="K98" s="6" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="L98" s="6" t="s">
         <v>9</v>
@@ -8025,7 +8038,7 @@
         <v>9</v>
       </c>
       <c r="N98" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O98" s="17" t="s">
         <v>25</v>
@@ -8075,7 +8088,7 @@
         <v>9</v>
       </c>
       <c r="N99" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O99" s="17" t="s">
         <v>25</v>
@@ -8125,7 +8138,7 @@
         <v>9</v>
       </c>
       <c r="N100" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O100" s="17" t="s">
         <v>25</v>
@@ -8163,7 +8176,7 @@
         <v>25</v>
       </c>
       <c r="K101" s="6" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="L101" s="6" t="s">
         <v>9</v>
@@ -8172,7 +8185,7 @@
         <v>9</v>
       </c>
       <c r="N101" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O101" s="17" t="s">
         <v>25</v>
@@ -8213,7 +8226,7 @@
         <v>25</v>
       </c>
       <c r="K102" s="6" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="L102" s="6" t="s">
         <v>9</v>
@@ -8222,7 +8235,7 @@
         <v>9</v>
       </c>
       <c r="N102" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O102" s="17" t="s">
         <v>25</v>
@@ -8260,7 +8273,7 @@
         <v>25</v>
       </c>
       <c r="K103" s="6" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="L103" s="6" t="s">
         <v>9</v>
@@ -8269,7 +8282,7 @@
         <v>9</v>
       </c>
       <c r="N103" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O103" s="17" t="s">
         <v>25</v>
@@ -8307,7 +8320,7 @@
         <v>25</v>
       </c>
       <c r="K104" s="6" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="L104" s="6" t="s">
         <v>9</v>
@@ -8316,7 +8329,7 @@
         <v>9</v>
       </c>
       <c r="N104" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O104" s="17" t="s">
         <v>25</v>
@@ -8354,7 +8367,7 @@
         <v>25</v>
       </c>
       <c r="K105" s="6" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="L105" s="6" t="s">
         <v>9</v>
@@ -8363,7 +8376,7 @@
         <v>9</v>
       </c>
       <c r="N105" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O105" s="17" t="s">
         <v>25</v>
@@ -8401,7 +8414,7 @@
         <v>25</v>
       </c>
       <c r="K106" s="6" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="L106" s="6" t="s">
         <v>9</v>
@@ -8410,7 +8423,7 @@
         <v>9</v>
       </c>
       <c r="N106" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O106" s="17" t="s">
         <v>25</v>
@@ -8451,7 +8464,7 @@
         <v>25</v>
       </c>
       <c r="K107" s="6" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="L107" s="6" t="s">
         <v>9</v>
@@ -8460,7 +8473,7 @@
         <v>9</v>
       </c>
       <c r="N107" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O107" s="17" t="s">
         <v>25</v>
@@ -8501,7 +8514,7 @@
         <v>25</v>
       </c>
       <c r="K108" s="6" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="L108" s="6" t="s">
         <v>9</v>
@@ -8510,7 +8523,7 @@
         <v>9</v>
       </c>
       <c r="N108" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O108" s="17" t="s">
         <v>25</v>
@@ -8551,7 +8564,7 @@
         <v>25</v>
       </c>
       <c r="K109" s="6" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="L109" s="6" t="s">
         <v>9</v>
@@ -8560,7 +8573,7 @@
         <v>9</v>
       </c>
       <c r="N109" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O109" s="17" t="s">
         <v>25</v>
@@ -8607,7 +8620,7 @@
         <v>9</v>
       </c>
       <c r="N110" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O110" s="17" t="s">
         <v>25</v>
@@ -8639,16 +8652,16 @@
         <v>25</v>
       </c>
       <c r="K111" s="6" t="s">
+        <v>1062</v>
+      </c>
+      <c r="L111" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M111" s="6" t="s">
         <v>1063</v>
       </c>
-      <c r="L111" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="M111" s="6" t="s">
-        <v>1064</v>
-      </c>
       <c r="N111" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O111" s="17" t="s">
         <v>25</v>
@@ -8689,7 +8702,7 @@
         <v>25</v>
       </c>
       <c r="K112" s="6" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="L112" s="6" t="s">
         <v>9</v>
@@ -8698,7 +8711,7 @@
         <v>9</v>
       </c>
       <c r="N112" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O112" s="17" t="s">
         <v>25</v>
@@ -8739,7 +8752,7 @@
         <v>25</v>
       </c>
       <c r="K113" s="6" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="L113" s="6" t="s">
         <v>9</v>
@@ -8748,7 +8761,7 @@
         <v>9</v>
       </c>
       <c r="N113" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O113" s="17" t="s">
         <v>25</v>
@@ -8786,7 +8799,7 @@
         <v>25</v>
       </c>
       <c r="K114" s="6" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="L114" s="6" t="s">
         <v>9</v>
@@ -8795,7 +8808,7 @@
         <v>9</v>
       </c>
       <c r="N114" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O114" s="17" t="s">
         <v>25</v>
@@ -8827,22 +8840,22 @@
         <v>25</v>
       </c>
       <c r="I115" s="14" t="s">
+        <v>1065</v>
+      </c>
+      <c r="J115" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K115" s="6" t="s">
         <v>1066</v>
       </c>
-      <c r="J115" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="K115" s="6" t="s">
-        <v>1067</v>
-      </c>
       <c r="L115" s="6" t="s">
         <v>25</v>
       </c>
       <c r="M115" s="6" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="N115" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O115" s="17" t="s">
         <v>25</v>
@@ -8880,10 +8893,10 @@
         <v>25</v>
       </c>
       <c r="K116" s="6" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="N116" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O116" s="17" t="s">
         <v>25</v>
@@ -8921,10 +8934,10 @@
         <v>25</v>
       </c>
       <c r="K117" s="6" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="N117" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O117" s="17" t="s">
         <v>25</v>
@@ -8962,10 +8975,16 @@
         <v>25</v>
       </c>
       <c r="K118" s="6" t="s">
-        <v>1057</v>
+        <v>1056</v>
+      </c>
+      <c r="L118" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M118" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="N118" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O118" s="17" t="s">
         <v>25</v>
@@ -9003,10 +9022,16 @@
         <v>25</v>
       </c>
       <c r="K119" s="6" t="s">
-        <v>1057</v>
+        <v>1056</v>
+      </c>
+      <c r="L119" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M119" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="N119" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O119" s="17" t="s">
         <v>25</v>
@@ -9044,10 +9069,10 @@
         <v>25</v>
       </c>
       <c r="K120" s="6" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="N120" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O120" s="17" t="s">
         <v>25</v>
@@ -9085,10 +9110,10 @@
         <v>25</v>
       </c>
       <c r="K121" s="6" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="N121" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O121" s="17" t="s">
         <v>25</v>
@@ -9120,22 +9145,22 @@
         <v>25</v>
       </c>
       <c r="I122" s="14" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="J122" s="6" t="s">
         <v>25</v>
       </c>
       <c r="K122" s="6" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="L122" s="6" t="s">
         <v>25</v>
       </c>
       <c r="M122" s="6" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="N122" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O122" s="17" t="s">
         <v>25</v>
@@ -9176,10 +9201,16 @@
         <v>25</v>
       </c>
       <c r="K123" s="6" t="s">
-        <v>1058</v>
+        <v>1057</v>
+      </c>
+      <c r="L123" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M123" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="N123" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O123" s="17" t="s">
         <v>25</v>
@@ -9211,22 +9242,22 @@
         <v>25</v>
       </c>
       <c r="I124" s="14" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="J124" s="6" t="s">
         <v>25</v>
       </c>
       <c r="K124" s="6" t="s">
+        <v>1069</v>
+      </c>
+      <c r="L124" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M124" s="14" t="s">
         <v>1070</v>
       </c>
-      <c r="L124" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="M124" s="14" t="s">
-        <v>1071</v>
-      </c>
       <c r="N124" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O124" s="17" t="s">
         <v>25</v>
@@ -9267,10 +9298,10 @@
         <v>25</v>
       </c>
       <c r="K125" s="6" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="N125" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O125" s="17" t="s">
         <v>25</v>
@@ -9311,7 +9342,7 @@
         <v>11</v>
       </c>
       <c r="N126" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O126" s="17" t="s">
         <v>25</v>
@@ -9352,10 +9383,16 @@
         <v>25</v>
       </c>
       <c r="K127" s="6" t="s">
-        <v>1061</v>
+        <v>1060</v>
+      </c>
+      <c r="L127" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M127" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="N127" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O127" s="17" t="s">
         <v>25</v>
@@ -9393,10 +9430,10 @@
         <v>25</v>
       </c>
       <c r="K128" s="6" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="N128" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O128" s="17" t="s">
         <v>25</v>
@@ -9437,10 +9474,16 @@
         <v>25</v>
       </c>
       <c r="K129" s="6" t="s">
-        <v>1055</v>
+        <v>1054</v>
+      </c>
+      <c r="L129" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M129" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="N129" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O129" s="17" t="s">
         <v>25</v>
@@ -9484,10 +9527,16 @@
         <v>25</v>
       </c>
       <c r="K130" s="6" t="s">
-        <v>1055</v>
+        <v>1054</v>
+      </c>
+      <c r="L130" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M130" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="N130" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O130" s="17" t="s">
         <v>25</v>
@@ -9522,25 +9571,25 @@
         <v>702</v>
       </c>
       <c r="H131" s="14" t="s">
-        <v>1043</v>
+        <v>1116</v>
       </c>
       <c r="I131" s="14" t="s">
-        <v>1043</v>
+        <v>1116</v>
       </c>
       <c r="J131" s="6" t="s">
         <v>25</v>
       </c>
       <c r="K131" s="6" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="L131" s="6" t="s">
-        <v>1043</v>
+        <v>1116</v>
       </c>
       <c r="M131" s="6" t="s">
-        <v>1043</v>
+        <v>1116</v>
       </c>
       <c r="N131" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O131" s="17" t="s">
         <v>25</v>
@@ -9572,10 +9621,10 @@
         <v>25</v>
       </c>
       <c r="I132" s="14" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="N132" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O132" s="17" t="s">
         <v>25</v>
@@ -9616,10 +9665,10 @@
         <v>25</v>
       </c>
       <c r="K133" s="6" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="N133" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O133" s="17" t="s">
         <v>25</v>
@@ -9657,10 +9706,10 @@
         <v>25</v>
       </c>
       <c r="K134" s="6" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="N134" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O134" s="17" t="s">
         <v>25</v>
@@ -9700,8 +9749,14 @@
       <c r="K135" s="6" t="s">
         <v>1040</v>
       </c>
+      <c r="L135" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M135" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="N135" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O135" s="17" t="s">
         <v>25</v>
@@ -9744,8 +9799,14 @@
       <c r="K136" s="6" t="s">
         <v>1040</v>
       </c>
+      <c r="L136" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M136" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="N136" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O136" s="17" t="s">
         <v>25</v>
@@ -9785,8 +9846,14 @@
       <c r="K137" s="6" t="s">
         <v>1040</v>
       </c>
+      <c r="L137" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M137" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="N137" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O137" s="17" t="s">
         <v>25</v>
@@ -9829,8 +9896,14 @@
       <c r="K138" s="6" t="s">
         <v>1040</v>
       </c>
+      <c r="L138" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M138" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="N138" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O138" s="17" t="s">
         <v>25</v>
@@ -9868,10 +9941,16 @@
         <v>25</v>
       </c>
       <c r="K139" s="6" t="s">
-        <v>1056</v>
+        <v>1055</v>
+      </c>
+      <c r="L139" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M139" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="N139" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O139" s="17" t="s">
         <v>25</v>
@@ -9912,10 +9991,16 @@
         <v>25</v>
       </c>
       <c r="K140" s="6" t="s">
-        <v>1056</v>
+        <v>1055</v>
+      </c>
+      <c r="L140" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M140" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="N140" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O140" s="17" t="s">
         <v>25</v>
@@ -9953,10 +10038,16 @@
         <v>25</v>
       </c>
       <c r="K141" s="6" t="s">
-        <v>1056</v>
+        <v>1055</v>
+      </c>
+      <c r="L141" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M141" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="N141" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O141" s="17" t="s">
         <v>25</v>
@@ -9994,10 +10085,16 @@
         <v>25</v>
       </c>
       <c r="K142" s="6" t="s">
-        <v>1056</v>
+        <v>1055</v>
+      </c>
+      <c r="L142" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M142" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="N142" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O142" s="17" t="s">
         <v>25</v>
@@ -10035,10 +10132,16 @@
         <v>25</v>
       </c>
       <c r="K143" s="6" t="s">
-        <v>1056</v>
+        <v>1055</v>
+      </c>
+      <c r="L143" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M143" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="N143" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O143" s="17" t="s">
         <v>25</v>
@@ -10076,10 +10179,16 @@
         <v>25</v>
       </c>
       <c r="K144" s="6" t="s">
-        <v>1056</v>
+        <v>1055</v>
+      </c>
+      <c r="L144" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M144" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="N144" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O144" s="17" t="s">
         <v>25</v>
@@ -10117,10 +10226,16 @@
         <v>25</v>
       </c>
       <c r="K145" s="6" t="s">
-        <v>1056</v>
+        <v>1055</v>
+      </c>
+      <c r="L145" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M145" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="N145" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O145" s="17" t="s">
         <v>25</v>
@@ -10158,10 +10273,16 @@
         <v>25</v>
       </c>
       <c r="K146" s="6" t="s">
-        <v>1056</v>
+        <v>1055</v>
+      </c>
+      <c r="L146" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M146" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="N146" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O146" s="17" t="s">
         <v>25</v>
@@ -10201,8 +10322,14 @@
       <c r="K147" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="L147" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M147" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="N147" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O147" s="17" t="s">
         <v>25</v>
@@ -10240,10 +10367,16 @@
         <v>25</v>
       </c>
       <c r="K148" s="6" t="s">
-        <v>1061</v>
+        <v>1060</v>
+      </c>
+      <c r="L148" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M148" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="N148" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O148" s="17" t="s">
         <v>25</v>
@@ -10283,8 +10416,14 @@
       <c r="K149" s="6" t="s">
         <v>36</v>
       </c>
+      <c r="L149" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M149" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="N149" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O149" s="17" t="s">
         <v>25</v>
@@ -10324,8 +10463,14 @@
       <c r="K150" s="6" t="s">
         <v>36</v>
       </c>
+      <c r="L150" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M150" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="N150" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O150" s="17" t="s">
         <v>25</v>
@@ -10365,8 +10510,14 @@
       <c r="K151" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="L151" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M151" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="N151" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O151" s="17" t="s">
         <v>25</v>
@@ -10413,7 +10564,7 @@
         <v>9</v>
       </c>
       <c r="N152" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O152" s="17" t="s">
         <v>25</v>
@@ -10454,10 +10605,10 @@
         <v>25</v>
       </c>
       <c r="K153" s="6" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="N153" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O153" s="17" t="s">
         <v>25</v>
@@ -10495,10 +10646,16 @@
         <v>25</v>
       </c>
       <c r="K154" s="6" t="s">
-        <v>1058</v>
+        <v>1057</v>
+      </c>
+      <c r="L154" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M154" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="N154" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O154" s="17" t="s">
         <v>25</v>
@@ -10536,16 +10693,16 @@
         <v>25</v>
       </c>
       <c r="K155" s="6" t="s">
+        <v>1069</v>
+      </c>
+      <c r="L155" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M155" s="6" t="s">
         <v>1070</v>
       </c>
-      <c r="L155" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="M155" s="6" t="s">
-        <v>1071</v>
-      </c>
       <c r="N155" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O155" s="17" t="s">
         <v>25</v>
@@ -10589,7 +10746,7 @@
         <v>37</v>
       </c>
       <c r="N156" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O156" s="17" t="s">
         <v>25</v>
@@ -10630,23 +10787,19 @@
         <v>25</v>
       </c>
       <c r="K157" s="6" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="L157" s="6" t="s">
         <v>25</v>
       </c>
       <c r="M157" s="6" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="N157" s="18" t="s">
-        <v>1098</v>
-      </c>
-      <c r="O157" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="P157" s="17" t="s">
-        <v>77</v>
-      </c>
+        <v>1097</v>
+      </c>
+      <c r="O157" s="17"/>
+      <c r="P157" s="17"/>
     </row>
     <row r="158" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A158" s="4" t="s">
@@ -10677,23 +10830,19 @@
         <v>25</v>
       </c>
       <c r="K158" s="6" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="L158" s="6" t="s">
         <v>25</v>
       </c>
       <c r="M158" s="6" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="N158" s="18" t="s">
-        <v>1098</v>
-      </c>
-      <c r="O158" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="P158" s="17" t="s">
-        <v>77</v>
-      </c>
+        <v>1097</v>
+      </c>
+      <c r="O158" s="17"/>
+      <c r="P158" s="17"/>
     </row>
     <row r="159" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A159" s="4" t="s">
@@ -10724,10 +10873,16 @@
         <v>25</v>
       </c>
       <c r="K159" s="6" t="s">
-        <v>1060</v>
+        <v>1059</v>
+      </c>
+      <c r="L159" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M159" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="N159" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O159" s="17" t="s">
         <v>25</v>
@@ -10765,10 +10920,16 @@
         <v>25</v>
       </c>
       <c r="K160" s="6" t="s">
-        <v>1061</v>
+        <v>1060</v>
+      </c>
+      <c r="L160" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M160" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="N160" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O160" s="17" t="s">
         <v>25</v>
@@ -10808,8 +10969,14 @@
       <c r="K161" s="6" t="s">
         <v>1040</v>
       </c>
+      <c r="L161" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M161" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="N161" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O161" s="17" t="s">
         <v>25</v>
@@ -10847,10 +11014,16 @@
         <v>25</v>
       </c>
       <c r="K162" s="6" t="s">
-        <v>1056</v>
+        <v>1055</v>
+      </c>
+      <c r="L162" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M162" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="N162" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O162" s="17" t="s">
         <v>25</v>
@@ -10890,8 +11063,14 @@
       <c r="K163" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="L163" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M163" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="N163" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O163" s="17" t="s">
         <v>25</v>
@@ -10929,10 +11108,16 @@
         <v>25</v>
       </c>
       <c r="K164" s="6" t="s">
-        <v>1069</v>
+        <v>1068</v>
+      </c>
+      <c r="L164" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M164" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="N164" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O164" s="17" t="s">
         <v>25</v>
@@ -10973,7 +11158,7 @@
         <v>92</v>
       </c>
       <c r="N165" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O165" s="17" t="s">
         <v>25</v>
@@ -11014,10 +11199,16 @@
         <v>25</v>
       </c>
       <c r="K166" s="6" t="s">
-        <v>1061</v>
+        <v>1060</v>
+      </c>
+      <c r="L166" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M166" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="N166" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O166" s="17" t="s">
         <v>25</v>
@@ -11058,10 +11249,16 @@
         <v>25</v>
       </c>
       <c r="K167" s="6" t="s">
-        <v>1061</v>
+        <v>1060</v>
+      </c>
+      <c r="L167" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M167" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="N167" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O167" s="17" t="s">
         <v>25</v>
@@ -11093,22 +11290,22 @@
         <v>25</v>
       </c>
       <c r="I168" s="14" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="J168" s="6" t="s">
         <v>25</v>
       </c>
       <c r="K168" s="6" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="L168" s="6" t="s">
         <v>25</v>
       </c>
       <c r="M168" s="6" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="N168" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O168" s="17" t="s">
         <v>25</v>
@@ -11149,7 +11346,7 @@
         <v>25</v>
       </c>
       <c r="K169" s="6" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="L169" s="6" t="s">
         <v>9</v>
@@ -11158,7 +11355,7 @@
         <v>9</v>
       </c>
       <c r="N169" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O169" s="17" t="s">
         <v>25</v>
@@ -11196,7 +11393,7 @@
         <v>25</v>
       </c>
       <c r="K170" s="6" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="L170" s="6" t="s">
         <v>9</v>
@@ -11205,7 +11402,7 @@
         <v>9</v>
       </c>
       <c r="N170" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O170" s="17" t="s">
         <v>25</v>
@@ -11243,7 +11440,7 @@
         <v>25</v>
       </c>
       <c r="K171" s="6" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="L171" s="6" t="s">
         <v>9</v>
@@ -11252,7 +11449,7 @@
         <v>9</v>
       </c>
       <c r="N171" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O171" s="17" t="s">
         <v>25</v>
@@ -11290,7 +11487,7 @@
         <v>25</v>
       </c>
       <c r="K172" s="6" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="L172" s="6" t="s">
         <v>9</v>
@@ -11299,7 +11496,7 @@
         <v>9</v>
       </c>
       <c r="N172" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O172" s="17" t="s">
         <v>25</v>
@@ -11328,25 +11525,25 @@
         <v>702</v>
       </c>
       <c r="H173" s="14" t="s">
-        <v>1043</v>
+        <v>1116</v>
       </c>
       <c r="I173" s="14" t="s">
-        <v>1043</v>
+        <v>1116</v>
       </c>
       <c r="J173" s="6" t="s">
         <v>25</v>
       </c>
       <c r="K173" s="6" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="L173" s="6" t="s">
-        <v>1043</v>
+        <v>1116</v>
       </c>
       <c r="M173" s="6" t="s">
-        <v>1043</v>
+        <v>1116</v>
       </c>
       <c r="N173" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O173" s="17" t="s">
         <v>25</v>
@@ -11393,7 +11590,7 @@
         <v>9</v>
       </c>
       <c r="N174" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O174" s="17" t="s">
         <v>25</v>
@@ -11431,7 +11628,7 @@
         <v>25</v>
       </c>
       <c r="K175" s="6" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="L175" s="6" t="s">
         <v>9</v>
@@ -11440,7 +11637,7 @@
         <v>9</v>
       </c>
       <c r="N175" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O175" s="17" t="s">
         <v>25</v>
@@ -11478,7 +11675,7 @@
         <v>25</v>
       </c>
       <c r="K176" s="6" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="L176" s="6" t="s">
         <v>9</v>
@@ -11487,7 +11684,7 @@
         <v>9</v>
       </c>
       <c r="N176" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O176" s="17" t="s">
         <v>25</v>
@@ -11534,7 +11731,7 @@
         <v>9</v>
       </c>
       <c r="N177" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O177" s="17" t="s">
         <v>25</v>
@@ -11581,7 +11778,7 @@
         <v>9</v>
       </c>
       <c r="N178" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O178" s="17" t="s">
         <v>25</v>
@@ -11628,7 +11825,7 @@
         <v>9</v>
       </c>
       <c r="N179" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O179" s="17" t="s">
         <v>25</v>
@@ -11666,7 +11863,7 @@
         <v>25</v>
       </c>
       <c r="K180" s="6" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="L180" s="6" t="s">
         <v>9</v>
@@ -11675,7 +11872,7 @@
         <v>9</v>
       </c>
       <c r="N180" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O180" s="17" t="s">
         <v>25</v>
@@ -11713,7 +11910,7 @@
         <v>25</v>
       </c>
       <c r="K181" s="6" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="L181" s="6" t="s">
         <v>9</v>
@@ -11722,7 +11919,7 @@
         <v>9</v>
       </c>
       <c r="N181" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O181" s="17" t="s">
         <v>25</v>
@@ -11760,7 +11957,7 @@
         <v>25</v>
       </c>
       <c r="K182" s="6" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="L182" s="6" t="s">
         <v>9</v>
@@ -11769,7 +11966,7 @@
         <v>9</v>
       </c>
       <c r="N182" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O182" s="17" t="s">
         <v>25</v>
@@ -11807,16 +12004,16 @@
         <v>10</v>
       </c>
       <c r="K183" s="6" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="N183" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O183" s="17" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="P183" s="17" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="184" spans="1:17" x14ac:dyDescent="0.35">
@@ -11848,10 +12045,10 @@
         <v>10</v>
       </c>
       <c r="K184" s="6" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="N184" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O184" s="17" t="s">
         <v>10</v>
@@ -11892,10 +12089,10 @@
         <v>10</v>
       </c>
       <c r="K185" s="6" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="N185" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O185" s="17" t="s">
         <v>10</v>
@@ -11939,7 +12136,7 @@
         <v>850</v>
       </c>
       <c r="N186" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O186" s="17" t="s">
         <v>10</v>
@@ -11983,7 +12180,7 @@
         <v>599</v>
       </c>
       <c r="N187" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O187" s="17" t="s">
         <v>10</v>
@@ -14616,14 +14813,26 @@
       <c r="I274" s="14" t="s">
         <v>9</v>
       </c>
+      <c r="J274" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K274" s="14" t="s">
+        <v>377</v>
+      </c>
       <c r="L274" s="6" t="s">
         <v>19</v>
       </c>
       <c r="M274" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="N274" s="18" t="b">
-        <v>0</v>
+      <c r="N274" s="18" t="s">
+        <v>1096</v>
+      </c>
+      <c r="O274" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="P274" s="14" t="s">
+        <v>377</v>
       </c>
       <c r="Q274" s="2" t="s">
         <v>378</v>
@@ -15035,7 +15244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A289" s="4" t="s">
         <v>768</v>
       </c>
@@ -15076,7 +15285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A290" s="4" t="s">
         <v>770</v>
       </c>
@@ -15117,7 +15326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A291" s="4" t="s">
         <v>793</v>
       </c>
@@ -15158,7 +15367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A292" s="4" t="s">
         <v>426</v>
       </c>
@@ -15187,7 +15396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A293" s="4" t="s">
         <v>450</v>
       </c>
@@ -15216,7 +15425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A294" s="4" t="s">
         <v>19</v>
       </c>
@@ -15242,7 +15451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A295" s="4" t="s">
         <v>318</v>
       </c>
@@ -15274,7 +15483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A296" s="4" t="s">
         <v>370</v>
       </c>
@@ -15303,7 +15512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A297" s="4" t="s">
         <v>303</v>
       </c>
@@ -15332,7 +15541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A298" s="4" t="s">
         <v>470</v>
       </c>
@@ -15361,7 +15570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A299" s="4" t="s">
         <v>943</v>
       </c>
@@ -15390,7 +15599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A300" s="4" t="s">
         <v>420</v>
       </c>
@@ -15419,7 +15628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A301" s="4" t="s">
         <v>930</v>
       </c>
@@ -15448,7 +15657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A302" s="4" t="s">
         <v>880</v>
       </c>
@@ -15477,7 +15686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A303" s="4" t="s">
         <v>874</v>
       </c>
@@ -15506,7 +15715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A304" s="4" t="s">
         <v>904</v>
       </c>
@@ -15543,8 +15752,14 @@
       <c r="M304" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N304" s="18" t="b">
-        <v>0</v>
+      <c r="N304" s="18" t="s">
+        <v>1096</v>
+      </c>
+      <c r="O304" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="P304" s="14" t="s">
+        <v>905</v>
       </c>
     </row>
     <row r="305" spans="1:16" x14ac:dyDescent="0.35">
@@ -15581,14 +15796,14 @@
       <c r="L305" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="M305" s="24" t="s">
+      <c r="M305" s="23" t="s">
         <v>9</v>
       </c>
       <c r="N305" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="O305" s="21"/>
-      <c r="P305" s="21"/>
+      <c r="O305" s="14"/>
+      <c r="P305" s="14"/>
     </row>
     <row r="306" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A306" s="4" t="s">
@@ -15627,8 +15842,14 @@
       <c r="M306" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N306" s="18" t="b">
-        <v>0</v>
+      <c r="N306" s="18" t="s">
+        <v>1096</v>
+      </c>
+      <c r="O306" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="P306" s="14" t="s">
+        <v>901</v>
       </c>
     </row>
     <row r="307" spans="1:16" x14ac:dyDescent="0.35">
@@ -17231,7 +17452,7 @@
         <v>25</v>
       </c>
       <c r="K359" s="6" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="L359" s="6" t="s">
         <v>9</v>
@@ -17426,7 +17647,7 @@
         <v>19</v>
       </c>
       <c r="K365" s="6" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="L365" s="6" t="s">
         <v>9</v>
@@ -17434,8 +17655,14 @@
       <c r="M365" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N365" s="19" t="b">
-        <v>0</v>
+      <c r="N365" s="19" t="s">
+        <v>1096</v>
+      </c>
+      <c r="O365" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="P365" s="14" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="366" spans="1:16" x14ac:dyDescent="0.35">
@@ -18411,11 +18638,17 @@
       <c r="I396" s="14" t="s">
         <v>9</v>
       </c>
+      <c r="J396" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K396" s="14" t="s">
+        <v>893</v>
+      </c>
       <c r="L396" s="6" t="s">
-        <v>1043</v>
+        <v>1116</v>
       </c>
       <c r="M396" s="6" t="s">
-        <v>1043</v>
+        <v>1116</v>
       </c>
       <c r="N396" s="19" t="b">
         <v>0</v>
@@ -18449,11 +18682,17 @@
       <c r="I397" s="14" t="s">
         <v>9</v>
       </c>
+      <c r="J397" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K397" s="14" t="s">
+        <v>893</v>
+      </c>
       <c r="L397" s="6" t="s">
-        <v>1043</v>
+        <v>1116</v>
       </c>
       <c r="M397" s="6" t="s">
-        <v>1043</v>
+        <v>1116</v>
       </c>
       <c r="N397" s="19" t="b">
         <v>0</v>
@@ -18484,11 +18723,17 @@
       <c r="I398" s="14" t="s">
         <v>9</v>
       </c>
+      <c r="J398" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K398" s="14" t="s">
+        <v>893</v>
+      </c>
       <c r="L398" s="6" t="s">
-        <v>1043</v>
+        <v>1116</v>
       </c>
       <c r="M398" s="6" t="s">
-        <v>1043</v>
+        <v>1116</v>
       </c>
       <c r="N398" s="19" t="b">
         <v>0</v>
@@ -19753,11 +19998,17 @@
       <c r="I440" s="14" t="s">
         <v>9</v>
       </c>
+      <c r="J440" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K440" s="14" t="s">
+        <v>693</v>
+      </c>
       <c r="L440" s="6" t="s">
-        <v>1043</v>
+        <v>1116</v>
       </c>
       <c r="M440" s="6" t="s">
-        <v>1043</v>
+        <v>1116</v>
       </c>
       <c r="N440" s="19" t="b">
         <v>0</v>
@@ -19788,11 +20039,17 @@
       <c r="I441" s="14" t="s">
         <v>693</v>
       </c>
+      <c r="J441" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K441" s="14" t="s">
+        <v>1019</v>
+      </c>
       <c r="L441" s="6" t="s">
-        <v>1043</v>
+        <v>1116</v>
       </c>
       <c r="M441" s="6" t="s">
-        <v>1043</v>
+        <v>1116</v>
       </c>
       <c r="N441" s="19" t="b">
         <v>0</v>
@@ -19823,11 +20080,17 @@
       <c r="I442" s="14" t="s">
         <v>9</v>
       </c>
+      <c r="J442" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K442" s="14" t="s">
+        <v>693</v>
+      </c>
       <c r="L442" s="6" t="s">
-        <v>1043</v>
+        <v>1116</v>
       </c>
       <c r="M442" s="6" t="s">
-        <v>1043</v>
+        <v>1116</v>
       </c>
       <c r="N442" s="19" t="b">
         <v>0</v>
@@ -20010,7 +20273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A449" s="4" t="s">
         <v>257</v>
       </c>
@@ -20039,7 +20302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A450" s="4" t="s">
         <v>258</v>
       </c>
@@ -20071,7 +20334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A451" s="4" t="s">
         <v>1036</v>
       </c>
@@ -20100,7 +20363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A452" s="4" t="s">
         <v>135</v>
       </c>
@@ -20129,7 +20392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A453" s="4" t="s">
         <v>135</v>
       </c>
@@ -20161,7 +20424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A454" s="4" t="s">
         <v>130</v>
       </c>
@@ -20190,7 +20453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A455" s="4" t="s">
         <v>1034</v>
       </c>
@@ -20219,7 +20482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A456" s="4" t="s">
         <v>1032</v>
       </c>
@@ -20248,7 +20511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A457" s="4" t="s">
         <v>414</v>
       </c>
@@ -20277,7 +20540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A458" s="4" t="s">
         <v>480</v>
       </c>
@@ -20306,7 +20569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A459" s="4" t="s">
         <v>477</v>
       </c>
@@ -20335,7 +20598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A460" s="4" t="s">
         <v>487</v>
       </c>
@@ -20364,7 +20627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A461" s="4" t="s">
         <v>515</v>
       </c>
@@ -20393,7 +20656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A462" s="4" t="s">
         <v>368</v>
       </c>
@@ -20430,11 +20693,17 @@
       <c r="M462" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="N462" s="19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="463" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N462" s="19" t="s">
+        <v>1096</v>
+      </c>
+      <c r="O462" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="P462" s="14" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="463" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A463" s="4" t="s">
         <v>365</v>
       </c>
@@ -20471,11 +20740,17 @@
       <c r="M463" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="N463" s="19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="464" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N463" s="19" t="s">
+        <v>1096</v>
+      </c>
+      <c r="O463" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="P463" s="14" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="464" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A464" s="4" t="s">
         <v>366</v>
       </c>
@@ -20512,8 +20787,14 @@
       <c r="M464" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="N464" s="19" t="b">
-        <v>0</v>
+      <c r="N464" s="19" t="s">
+        <v>1096</v>
+      </c>
+      <c r="O464" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="P464" s="14" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="465" spans="1:17" x14ac:dyDescent="0.35">
@@ -20553,8 +20834,14 @@
       <c r="M465" s="6" t="s">
         <v>834</v>
       </c>
-      <c r="N465" s="19" t="b">
-        <v>0</v>
+      <c r="N465" s="19" t="s">
+        <v>1096</v>
+      </c>
+      <c r="O465" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="P465" s="14" t="s">
+        <v>1031</v>
       </c>
     </row>
     <row r="466" spans="1:17" x14ac:dyDescent="0.35">
@@ -20597,8 +20884,14 @@
       <c r="M466" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="N466" s="19" t="b">
-        <v>0</v>
+      <c r="N466" s="19" t="s">
+        <v>1096</v>
+      </c>
+      <c r="O466" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="P466" s="14" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="467" spans="1:17" x14ac:dyDescent="0.35">
@@ -20655,11 +20948,17 @@
       <c r="I468" s="14" t="s">
         <v>9</v>
       </c>
+      <c r="J468" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K468" s="14" t="s">
+        <v>826</v>
+      </c>
       <c r="L468" s="6" t="s">
-        <v>1043</v>
+        <v>1116</v>
       </c>
       <c r="M468" s="6" t="s">
-        <v>1043</v>
+        <v>1116</v>
       </c>
       <c r="N468" s="19" t="b">
         <v>0</v>
@@ -20690,11 +20989,17 @@
       <c r="I469" s="14" t="s">
         <v>9</v>
       </c>
+      <c r="J469" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K469" s="14" t="s">
+        <v>826</v>
+      </c>
       <c r="L469" s="6" t="s">
-        <v>1043</v>
+        <v>1116</v>
       </c>
       <c r="M469" s="6" t="s">
-        <v>1043</v>
+        <v>1116</v>
       </c>
       <c r="N469" s="19" t="b">
         <v>0</v>
@@ -21431,11 +21736,17 @@
       <c r="I493" s="14" t="s">
         <v>21</v>
       </c>
+      <c r="J493" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K493" s="14" t="s">
+        <v>958</v>
+      </c>
       <c r="L493" s="6" t="s">
-        <v>1043</v>
+        <v>1116</v>
       </c>
       <c r="M493" s="6" t="s">
-        <v>1043</v>
+        <v>1116</v>
       </c>
       <c r="N493" s="19" t="b">
         <v>0</v>
@@ -21469,11 +21780,17 @@
       <c r="I494" s="14" t="s">
         <v>21</v>
       </c>
+      <c r="J494" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K494" s="14" t="s">
+        <v>958</v>
+      </c>
       <c r="L494" s="6" t="s">
-        <v>1043</v>
+        <v>1116</v>
       </c>
       <c r="M494" s="6" t="s">
-        <v>1043</v>
+        <v>1116</v>
       </c>
       <c r="N494" s="19" t="b">
         <v>0</v>
@@ -24293,7 +24610,7 @@
         <v>25</v>
       </c>
       <c r="I586" s="14" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="N586" s="18" t="b">
         <v>0</v>
@@ -24782,6 +25099,12 @@
       <c r="J600" s="6" t="s">
         <v>25</v>
       </c>
+      <c r="L600" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M600" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="N600" s="18" t="b">
         <v>0</v>
       </c>
@@ -26294,7 +26617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A641" s="4" t="s">
         <v>648</v>
       </c>
@@ -26338,7 +26661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A642" s="4" t="s">
         <v>650</v>
       </c>
@@ -26379,7 +26702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A643" s="4" t="s">
         <v>652</v>
       </c>
@@ -26420,7 +26743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A644" s="4" t="s">
         <v>640</v>
       </c>
@@ -26461,7 +26784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A645" s="4" t="s">
         <v>96</v>
       </c>
@@ -26496,7 +26819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A646" s="4" t="s">
         <v>624</v>
       </c>
@@ -26537,7 +26860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A647" s="4" t="s">
         <v>622</v>
       </c>
@@ -26578,7 +26901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A648" s="4" t="s">
         <v>588</v>
       </c>
@@ -26603,23 +26926,11 @@
       <c r="I648" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="J648" s="6" t="s">
-        <v>1043</v>
-      </c>
-      <c r="K648" s="6" t="s">
-        <v>1043</v>
-      </c>
-      <c r="L648" s="6" t="s">
-        <v>1043</v>
-      </c>
-      <c r="M648" s="6" t="s">
-        <v>1043</v>
-      </c>
       <c r="N648" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A649" s="4" t="s">
         <v>590</v>
       </c>
@@ -26654,7 +26965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A650" s="4" t="s">
         <v>1024</v>
       </c>
@@ -26689,7 +27000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A651" s="4" t="s">
         <v>1024</v>
       </c>
@@ -26727,7 +27038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A652" s="4" t="s">
         <v>1025</v>
       </c>
@@ -26762,7 +27073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A653" s="4" t="s">
         <v>15</v>
       </c>
@@ -26791,13 +27102,19 @@
         <v>25</v>
       </c>
       <c r="K653" s="6" t="s">
-        <v>1056</v>
+        <v>1055</v>
+      </c>
+      <c r="L653" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M653" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="N653" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A654" s="4" t="s">
         <v>43</v>
       </c>
@@ -26829,13 +27146,19 @@
         <v>25</v>
       </c>
       <c r="K654" s="6" t="s">
-        <v>1069</v>
+        <v>1068</v>
+      </c>
+      <c r="L654" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M654" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="N654" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A655" s="4" t="s">
         <v>43</v>
       </c>
@@ -26867,13 +27190,19 @@
         <v>25</v>
       </c>
       <c r="K655" s="6" t="s">
-        <v>1069</v>
+        <v>1068</v>
+      </c>
+      <c r="L655" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M655" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="N655" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A656" s="4" t="s">
         <v>725</v>
       </c>
@@ -26905,10 +27234,22 @@
         <v>25</v>
       </c>
       <c r="K656" s="6" t="s">
-        <v>1087</v>
-      </c>
-      <c r="N656" s="18" t="b">
-        <v>0</v>
+        <v>1086</v>
+      </c>
+      <c r="L656" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M656" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N656" s="18" t="s">
+        <v>1096</v>
+      </c>
+      <c r="O656" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="P656" s="14" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="657" spans="1:14" x14ac:dyDescent="0.35">
@@ -29710,7 +30051,7 @@
         <v>10</v>
       </c>
       <c r="K755" s="6" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="N755" s="18" t="b">
         <v>0</v>
@@ -29780,17 +30121,17 @@
         <v>10</v>
       </c>
       <c r="K757" s="9" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="L757" s="9"/>
       <c r="M757" s="9"/>
       <c r="N757" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="O757" s="22"/>
-      <c r="P757" s="22"/>
+      <c r="O757" s="21"/>
+      <c r="P757" s="21"/>
       <c r="Q757" s="10" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="R757" s="10"/>
       <c r="S757" s="10"/>
@@ -29825,7 +30166,7 @@
         <v>10</v>
       </c>
       <c r="K758" s="6" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="N758" s="18" t="b">
         <v>0</v>
@@ -29860,7 +30201,7 @@
         <v>10</v>
       </c>
       <c r="K759" s="6" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="N759" s="18" t="b">
         <v>0</v>
@@ -29895,7 +30236,7 @@
         <v>10</v>
       </c>
       <c r="K760" s="6" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="N760" s="18" t="b">
         <v>0</v>
@@ -29930,7 +30271,7 @@
         <v>10</v>
       </c>
       <c r="K761" s="6" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="N761" s="18" t="b">
         <v>0</v>
@@ -29965,7 +30306,7 @@
         <v>10</v>
       </c>
       <c r="K762" s="6" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="N762" s="18" t="b">
         <v>0</v>
@@ -30000,7 +30341,7 @@
         <v>10</v>
       </c>
       <c r="K763" s="6" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="N763" s="18" t="b">
         <v>0</v>

--- a/data/combined data/combined data - 1 cleaning/cleaning step 2 - career/2.3 joborglink/joborglink_6_1_inorgtree_both_tocode_1_jeongsu_x.xlsx
+++ b/data/combined data/combined data - 1 cleaning/cleaning step 2 - career/2.3 joborglink/joborglink_6_1_inorgtree_both_tocode_1_jeongsu_x.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seoul\Dropbox\00 technical\github\nkelites\data\combined data\combined data - 1 cleaning\cleaning step 2 - career\2.3 joborglink\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CAF6181-C8D7-48AE-91B6-745CD1D1207A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF387C2-A591-454D-8A3B-B2D0125634E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6614" uniqueCount="1117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6605" uniqueCount="1116">
   <si>
     <t>OrgString</t>
   </si>
@@ -3377,9 +3377,6 @@
   </si>
   <si>
     <t>당중앙위원회_문화예술부</t>
-  </si>
-  <si>
-    <t>대외경제석_민족경제협력위원회_민족경제협력연합회</t>
   </si>
   <si>
     <t>경공업부</t>
@@ -3851,10 +3848,10 @@
   <dimension ref="A1:T832"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F403" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F637" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J472" sqref="J472"/>
+      <selection pane="bottomRight" activeCell="N657" sqref="N657"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3865,13 +3862,13 @@
     <col min="4" max="4" width="9.1796875" style="4" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="9.54296875" style="4" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="20.81640625" style="14" customWidth="1"/>
-    <col min="7" max="7" width="36.36328125" style="14" customWidth="1"/>
-    <col min="8" max="9" width="20.81640625" style="14" customWidth="1"/>
+    <col min="7" max="9" width="33.08984375" style="14" customWidth="1"/>
     <col min="10" max="10" width="24.453125" style="6" customWidth="1"/>
-    <col min="11" max="11" width="35" style="6" customWidth="1"/>
+    <col min="11" max="11" width="52.81640625" style="6" customWidth="1"/>
     <col min="12" max="13" width="24.453125" style="6" customWidth="1"/>
     <col min="14" max="14" width="18" style="18" customWidth="1"/>
-    <col min="15" max="16" width="18.26953125" style="20" customWidth="1"/>
+    <col min="15" max="15" width="18.26953125" style="20" customWidth="1"/>
+    <col min="16" max="16" width="35.1796875" style="20" customWidth="1"/>
     <col min="17" max="17" width="8.36328125" style="2" customWidth="1"/>
     <col min="18" max="16384" width="8.6328125" style="2"/>
   </cols>
@@ -5630,10 +5627,10 @@
         <v>1019</v>
       </c>
       <c r="L43" s="6" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="N43" s="19" t="s">
         <v>1097</v>
@@ -5671,10 +5668,10 @@
         <v>1019</v>
       </c>
       <c r="L44" s="6" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="N44" s="19" t="s">
         <v>1097</v>
@@ -6161,7 +6158,7 @@
         <v>62</v>
       </c>
       <c r="K55" s="6" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="L55" s="6" t="s">
         <v>9</v>
@@ -6205,7 +6202,7 @@
         <v>62</v>
       </c>
       <c r="K56" s="6" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="L56" s="6" t="s">
         <v>9</v>
@@ -7233,7 +7230,7 @@
         <v>8</v>
       </c>
       <c r="P81" s="17" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.35">
@@ -9571,10 +9568,10 @@
         <v>702</v>
       </c>
       <c r="H131" s="14" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="I131" s="14" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="J131" s="6" t="s">
         <v>25</v>
@@ -9583,10 +9580,10 @@
         <v>1072</v>
       </c>
       <c r="L131" s="6" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="M131" s="6" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="N131" s="18" t="s">
         <v>1096</v>
@@ -11525,10 +11522,10 @@
         <v>702</v>
       </c>
       <c r="H173" s="14" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="I173" s="14" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="J173" s="6" t="s">
         <v>25</v>
@@ -11537,10 +11534,10 @@
         <v>1072</v>
       </c>
       <c r="L173" s="6" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="M173" s="6" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="N173" s="18" t="s">
         <v>1096</v>
@@ -12013,7 +12010,7 @@
         <v>1100</v>
       </c>
       <c r="P183" s="17" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="184" spans="1:17" x14ac:dyDescent="0.35">
@@ -17638,32 +17635,16 @@
         <v>733</v>
       </c>
       <c r="H365" s="14" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I365" s="14" t="s">
-        <v>552</v>
-      </c>
-      <c r="J365" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K365" s="6" t="s">
-        <v>1112</v>
-      </c>
-      <c r="L365" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="M365" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="N365" s="19" t="s">
-        <v>1096</v>
-      </c>
-      <c r="O365" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="P365" s="14" t="s">
-        <v>733</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="N365" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="O365" s="14"/>
+      <c r="P365" s="14"/>
     </row>
     <row r="366" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A366" s="4" t="s">
@@ -18645,10 +18626,10 @@
         <v>893</v>
       </c>
       <c r="L396" s="6" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="M396" s="6" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="N396" s="19" t="b">
         <v>0</v>
@@ -18689,10 +18670,10 @@
         <v>893</v>
       </c>
       <c r="L397" s="6" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="M397" s="6" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="N397" s="19" t="b">
         <v>0</v>
@@ -18730,10 +18711,10 @@
         <v>893</v>
       </c>
       <c r="L398" s="6" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="M398" s="6" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="N398" s="19" t="b">
         <v>0</v>
@@ -20005,10 +19986,10 @@
         <v>693</v>
       </c>
       <c r="L440" s="6" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="M440" s="6" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="N440" s="19" t="b">
         <v>0</v>
@@ -20046,10 +20027,10 @@
         <v>1019</v>
       </c>
       <c r="L441" s="6" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="M441" s="6" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="N441" s="19" t="b">
         <v>0</v>
@@ -20087,10 +20068,10 @@
         <v>693</v>
       </c>
       <c r="L442" s="6" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="M442" s="6" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="N442" s="19" t="b">
         <v>0</v>
@@ -20955,10 +20936,10 @@
         <v>826</v>
       </c>
       <c r="L468" s="6" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="M468" s="6" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="N468" s="19" t="b">
         <v>0</v>
@@ -20996,10 +20977,10 @@
         <v>826</v>
       </c>
       <c r="L469" s="6" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="M469" s="6" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="N469" s="19" t="b">
         <v>0</v>
@@ -21743,10 +21724,10 @@
         <v>958</v>
       </c>
       <c r="L493" s="6" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="M493" s="6" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="N493" s="19" t="b">
         <v>0</v>
@@ -21787,10 +21768,10 @@
         <v>958</v>
       </c>
       <c r="L494" s="6" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="M494" s="6" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="N494" s="19" t="b">
         <v>0</v>
@@ -26617,7 +26598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A641" s="4" t="s">
         <v>648</v>
       </c>
@@ -26661,7 +26642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A642" s="4" t="s">
         <v>650</v>
       </c>
@@ -26702,7 +26683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A643" s="4" t="s">
         <v>652</v>
       </c>
@@ -26743,7 +26724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A644" s="4" t="s">
         <v>640</v>
       </c>
@@ -26784,7 +26765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A645" s="4" t="s">
         <v>96</v>
       </c>
@@ -26819,7 +26800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A646" s="4" t="s">
         <v>624</v>
       </c>
@@ -26860,7 +26841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A647" s="4" t="s">
         <v>622</v>
       </c>
@@ -26901,7 +26882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A648" s="4" t="s">
         <v>588</v>
       </c>
@@ -26930,7 +26911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A649" s="4" t="s">
         <v>590</v>
       </c>
@@ -26965,7 +26946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A650" s="4" t="s">
         <v>1024</v>
       </c>
@@ -27000,7 +26981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A651" s="4" t="s">
         <v>1024</v>
       </c>
@@ -27038,7 +27019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A652" s="4" t="s">
         <v>1025</v>
       </c>
@@ -27073,7 +27054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A653" s="4" t="s">
         <v>15</v>
       </c>
@@ -27114,7 +27095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A654" s="4" t="s">
         <v>43</v>
       </c>
@@ -27158,7 +27139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A655" s="4" t="s">
         <v>43</v>
       </c>
@@ -27202,7 +27183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A656" s="4" t="s">
         <v>725</v>
       </c>
@@ -27243,13 +27224,7 @@
         <v>9</v>
       </c>
       <c r="N656" s="18" t="s">
-        <v>1096</v>
-      </c>
-      <c r="O656" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="P656" s="14" t="s">
-        <v>727</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="657" spans="1:14" x14ac:dyDescent="0.35">
